--- a/data/spreadsheet_complex2.xlsx
+++ b/data/spreadsheet_complex2.xlsx
@@ -20,12 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">--outdir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./results</t>
+  </si>
   <si>
     <t xml:space="preserve">--target</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classify</t>
   </si>
   <si>
     <t xml:space="preserve">--categoricals</t>
@@ -34,43 +46,28 @@
     <t xml:space="preserve">s x0</t>
   </si>
   <si>
-    <t xml:space="preserve">--mode</t>
+    <t xml:space="preserve">--nan</t>
   </si>
   <si>
-    <t xml:space="preserve">classify</t>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minmax</t>
   </si>
   <si>
     <t xml:space="preserve">--classifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">svm mlp dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop</t>
+    <t xml:space="preserve">knn lgbm dummy</t>
   </si>
   <si>
     <t xml:space="preserve">--feat-select</t>
   </si>
   <si>
-    <t xml:space="preserve">stepup pearson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--n-feat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--htune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--htune-trials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--outdir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./results</t>
+    <t xml:space="preserve">filter wrap</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -212,16 +209,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.48"/>
   </cols>
@@ -230,7 +227,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -239,11 +236,10 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -254,6 +250,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -264,6 +261,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -274,6 +272,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -284,155 +283,172 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>2</v>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>50</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.487165687866343</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.760714545624462</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="true">C12+D12+RAND()/2</f>
+        <v>1.57816395709954</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.168726894850518</v>
+        <v>0.823516570117908</v>
       </c>
       <c r="D13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.158177272703284</v>
+        <v>0.832839043758089</v>
       </c>
       <c r="E13" s="5" t="n">
         <f aca="true">C13+D13+RAND()/2</f>
-        <v>0.341747069894276</v>
+        <v>2.04804603690095</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.213253489269326</v>
+        <v>0.489286728569868</v>
       </c>
       <c r="D14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.287868591245712</v>
+        <v>0.49546419504379</v>
       </c>
       <c r="E14" s="5" t="n">
         <f aca="true">C14+D14+RAND()/2</f>
-        <v>0.877151597528661</v>
+        <v>1.4028450583513</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.943563726095489</v>
+        <v>0.0937151243571713</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.972612677945387</v>
+        <v>0.683712634463779</v>
       </c>
       <c r="E15" s="5" t="n">
         <f aca="true">C15+D15+RAND()/2</f>
-        <v>2.06398956623001</v>
+        <v>1.19232506931623</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.292602712479164</v>
+        <v>0.987058107917462</v>
       </c>
       <c r="D16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.548230697453876</v>
+        <v>0.864058721546113</v>
       </c>
       <c r="E16" s="5" t="n">
         <f aca="true">C16+D16+RAND()/2</f>
-        <v>1.28534070296072</v>
+        <v>2.13148794145624</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -442,15 +458,15 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.385522605529581</v>
+        <v>0.769424450047132</v>
       </c>
       <c r="D17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.473041855007645</v>
+        <v>0.075017998275918</v>
       </c>
       <c r="E17" s="5" t="n">
         <f aca="true">C17+D17+RAND()/2</f>
-        <v>0.94584157785654</v>
+        <v>1.08752039656831</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -460,15 +476,15 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.510863095986004</v>
+        <v>0.246372381599878</v>
       </c>
       <c r="D18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.374937627033994</v>
+        <v>0.903344299261421</v>
       </c>
       <c r="E18" s="5" t="n">
         <f aca="true">C18+D18+RAND()/2</f>
-        <v>1.11880356419488</v>
+        <v>1.25192911571914</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -478,51 +494,51 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967484714249132</v>
+        <v>0.175457430649207</v>
       </c>
       <c r="D19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.84893502037044</v>
+        <v>0.483628747340216</v>
       </c>
       <c r="E19" s="5" t="n">
         <f aca="true">C19+D19+RAND()/2</f>
-        <v>2.18837876352311</v>
+        <v>1.07265229008578</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.000191833404488218</v>
+        <v>0.195452478752019</v>
       </c>
       <c r="D20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.207804192548135</v>
+        <v>0.273258353864312</v>
       </c>
       <c r="E20" s="5" t="n">
         <f aca="true">C20+D20+RAND()/2</f>
-        <v>0.518597487154069</v>
+        <v>0.793736528106047</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.444772891422992</v>
+        <v>0.768791442687073</v>
       </c>
       <c r="D21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.261196739766774</v>
+        <v>0.930621367735451</v>
       </c>
       <c r="E21" s="5" t="n">
         <f aca="true">C21+D21+RAND()/2</f>
-        <v>1.04813221527291</v>
+        <v>1.8481989442573</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -532,15 +548,15 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.465105374665017</v>
+        <v>0.233637652283891</v>
       </c>
       <c r="D22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.592181422257115</v>
+        <v>0.900071609375002</v>
       </c>
       <c r="E22" s="5" t="n">
         <f aca="true">C22+D22+RAND()/2</f>
-        <v>1.36170136865037</v>
+        <v>1.1702685190949</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -550,87 +566,87 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.951907329292294</v>
+        <v>0.967462017155872</v>
       </c>
       <c r="D23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.131261656556417</v>
+        <v>0.0312515487009748</v>
       </c>
       <c r="E23" s="5" t="n">
         <f aca="true">C23+D23+RAND()/2</f>
-        <v>1.27097131290128</v>
+        <v>1.17870878873136</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.21353477951654</v>
+        <v>0.890313454381231</v>
       </c>
       <c r="D24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757443115868563</v>
+        <v>0.773530933436759</v>
       </c>
       <c r="E24" s="5" t="n">
         <f aca="true">C24+D24+RAND()/2</f>
-        <v>1.08709927515481</v>
+        <v>1.89296276250408</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.184176008266392</v>
+        <v>0.276141545552493</v>
       </c>
       <c r="D25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.649775780506594</v>
+        <v>0.309679266747373</v>
       </c>
       <c r="E25" s="5" t="n">
         <f aca="true">C25+D25+RAND()/2</f>
-        <v>0.958509420773375</v>
+        <v>0.762437814216224</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.82087945971052</v>
+        <v>0.835237832999352</v>
       </c>
       <c r="D26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.710473743650078</v>
+        <v>0.844458119438273</v>
       </c>
       <c r="E26" s="5" t="n">
         <f aca="true">C26+D26+RAND()/2</f>
-        <v>1.62344368933698</v>
+        <v>2.03662881364036</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.640751263075178</v>
+        <v>0.284537815962127</v>
       </c>
       <c r="D27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.872695947517054</v>
+        <v>0.598170071469723</v>
       </c>
       <c r="E27" s="5" t="n">
         <f aca="true">C27+D27+RAND()/2</f>
-        <v>1.71155445978734</v>
+        <v>1.33537581367876</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -640,51 +656,51 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.793926970211055</v>
+        <v>0.316713941822318</v>
       </c>
       <c r="D28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.661792109626982</v>
+        <v>0.498314767951008</v>
       </c>
       <c r="E28" s="5" t="n">
         <f aca="true">C28+D28+RAND()/2</f>
-        <v>1.90554138902751</v>
+        <v>1.00172313097677</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0472413868789023</v>
+        <v>0.4353465780146</v>
       </c>
       <c r="D29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.45110008422547</v>
+        <v>0.743941704086095</v>
       </c>
       <c r="E29" s="5" t="n">
         <f aca="true">C29+D29+RAND()/2</f>
-        <v>0.965934518636579</v>
+        <v>1.49410514985496</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.328100472989965</v>
+        <v>0.270804949839026</v>
       </c>
       <c r="D30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.797804598545323</v>
+        <v>0.111227559500261</v>
       </c>
       <c r="E30" s="5" t="n">
         <f aca="true">C30+D30+RAND()/2</f>
-        <v>1.24401631680285</v>
+        <v>0.388666400481571</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -694,33 +710,33 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.817029431372882</v>
+        <v>0.49754339206565</v>
       </c>
       <c r="D31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0902873284534731</v>
+        <v>0.694751724111284</v>
       </c>
       <c r="E31" s="5" t="n">
         <f aca="true">C31+D31+RAND()/2</f>
-        <v>1.13469084941446</v>
+        <v>1.24432008659526</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.647305324391186</v>
+        <v>0.457310420397396</v>
       </c>
       <c r="D32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.308325976174816</v>
+        <v>0.0601973985706141</v>
       </c>
       <c r="E32" s="5" t="n">
         <f aca="true">C32+D32+RAND()/2</f>
-        <v>1.24205782255348</v>
+        <v>0.521090229151844</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -730,69 +746,69 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.828818587859636</v>
+        <v>0.354507775844081</v>
       </c>
       <c r="D33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.477199752570817</v>
+        <v>0.667289980856883</v>
       </c>
       <c r="E33" s="5" t="n">
         <f aca="true">C33+D33+RAND()/2</f>
-        <v>1.4981190836903</v>
+        <v>1.39564387760416</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133811562290719</v>
+        <v>0.327823960659842</v>
       </c>
       <c r="D34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.624422337481887</v>
+        <v>0.133113504842734</v>
       </c>
       <c r="E34" s="5" t="n">
         <f aca="true">C34+D34+RAND()/2</f>
-        <v>1.02491415980472</v>
+        <v>0.687792995709994</v>
       </c>
       <c r="F34" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.142361447741672</v>
+        <v>0.432981401392419</v>
       </c>
       <c r="D35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.685194003254002</v>
+        <v>0.550375128463734</v>
       </c>
       <c r="E35" s="5" t="n">
         <f aca="true">C35+D35+RAND()/2</f>
-        <v>0.954127823898024</v>
+        <v>1.25369377931097</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.336827303471658</v>
+        <v>0.997671811958687</v>
       </c>
       <c r="D36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.012599868254142</v>
+        <v>0.756508114569477</v>
       </c>
       <c r="E36" s="5" t="n">
         <f aca="true">C36+D36+RAND()/2</f>
-        <v>0.786984456826402</v>
+        <v>1.76997799307998</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -802,51 +818,51 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0842982133683572</v>
+        <v>0.313441130438587</v>
       </c>
       <c r="D37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.822376930975165</v>
+        <v>0.806361609419129</v>
       </c>
       <c r="E37" s="5" t="n">
         <f aca="true">C37+D37+RAND()/2</f>
-        <v>1.17273806387332</v>
+        <v>1.39495139077534</v>
       </c>
       <c r="F37" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.800811093077022</v>
+        <v>0.143605486273988</v>
       </c>
       <c r="D38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29619873298822</v>
+        <v>0.873204325040363</v>
       </c>
       <c r="E38" s="5" t="n">
         <f aca="true">C38+D38+RAND()/2</f>
-        <v>1.37447966195418</v>
+        <v>1.4881588155684</v>
       </c>
       <c r="F38" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.427164180414363</v>
+        <v>0.918513820956218</v>
       </c>
       <c r="D39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0853139109234365</v>
+        <v>0.4899327169534</v>
       </c>
       <c r="E39" s="5" t="n">
         <f aca="true">C39+D39+RAND()/2</f>
-        <v>0.523252141273739</v>
+        <v>1.49508906491805</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -856,33 +872,33 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.392644543166831</v>
+        <v>0.503768478274044</v>
       </c>
       <c r="D40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.9943429048051</v>
+        <v>0.374288530660414</v>
       </c>
       <c r="E40" s="5" t="n">
         <f aca="true">C40+D40+RAND()/2</f>
-        <v>1.48310626731266</v>
+        <v>0.905612755133848</v>
       </c>
       <c r="F40" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.507911529158089</v>
+        <v>0.938565001096227</v>
       </c>
       <c r="D41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.170322062139776</v>
+        <v>0.73463721702908</v>
       </c>
       <c r="E41" s="5" t="n">
         <f aca="true">C41+D41+RAND()/2</f>
-        <v>0.796940098559357</v>
+        <v>2.16556069474247</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -892,33 +908,33 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.814104739545992</v>
+        <v>0.621386222626562</v>
       </c>
       <c r="D42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.314415099516157</v>
+        <v>0.657100142888375</v>
       </c>
       <c r="E42" s="5" t="n">
         <f aca="true">C42+D42+RAND()/2</f>
-        <v>1.36659061795822</v>
+        <v>1.42967193396665</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.452104261000243</v>
+        <v>0.83707361559415</v>
       </c>
       <c r="D43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0590958885578982</v>
+        <v>0.0149360775331711</v>
       </c>
       <c r="E43" s="5" t="n">
         <f aca="true">C43+D43+RAND()/2</f>
-        <v>0.750495787267244</v>
+        <v>1.31850713925217</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -928,33 +944,33 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.610794519740275</v>
+        <v>0.479928749896623</v>
       </c>
       <c r="D44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.655117858047556</v>
+        <v>0.974203092320723</v>
       </c>
       <c r="E44" s="5" t="n">
         <f aca="true">C44+D44+RAND()/2</f>
-        <v>1.66237523919123</v>
+        <v>1.50907428430975</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.926703520317004</v>
+        <v>0.693009223015342</v>
       </c>
       <c r="D45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.149315270565568</v>
+        <v>0.456485533998135</v>
       </c>
       <c r="E45" s="5" t="n">
         <f aca="true">C45+D45+RAND()/2</f>
-        <v>1.55577571831476</v>
+        <v>1.29367055032697</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -964,33 +980,33 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.31522847734962</v>
+        <v>0.0580461611071103</v>
       </c>
       <c r="D46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.529267163622287</v>
+        <v>0.0846280049879538</v>
       </c>
       <c r="E46" s="5" t="n">
         <f aca="true">C46+D46+RAND()/2</f>
-        <v>1.2205441813776</v>
+        <v>0.365527337741726</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.182544221794698</v>
+        <v>0.726661926972615</v>
       </c>
       <c r="D47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.861745869219172</v>
+        <v>0.0505069125470902</v>
       </c>
       <c r="E47" s="5" t="n">
         <f aca="true">C47+D47+RAND()/2</f>
-        <v>1.47763553554302</v>
+        <v>1.22170434324377</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1000,33 +1016,33 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.914490992232283</v>
+        <v>0.79044218259206</v>
       </c>
       <c r="D48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.793107849088669</v>
+        <v>0.449824859216927</v>
       </c>
       <c r="E48" s="5" t="n">
         <f aca="true">C48+D48+RAND()/2</f>
-        <v>1.85515504187501</v>
+        <v>1.46900349977684</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.546060406936237</v>
+        <v>0.693665019842379</v>
       </c>
       <c r="D49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0817290015445235</v>
+        <v>0.142637098486953</v>
       </c>
       <c r="E49" s="5" t="n">
         <f aca="true">C49+D49+RAND()/2</f>
-        <v>0.743682453388181</v>
+        <v>1.11054073610651</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1036,33 +1052,33 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.140342516821188</v>
+        <v>0.640329984872388</v>
       </c>
       <c r="D50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.363512691697716</v>
+        <v>0.242908628972753</v>
       </c>
       <c r="E50" s="5" t="n">
         <f aca="true">C50+D50+RAND()/2</f>
-        <v>0.730234925608682</v>
+        <v>1.19656447120306</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.738580243284262</v>
+        <v>0.832322424318219</v>
       </c>
       <c r="D51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0704254918943502</v>
+        <v>0.338186928484624</v>
       </c>
       <c r="E51" s="5" t="n">
         <f aca="true">C51+D51+RAND()/2</f>
-        <v>0.997508427234897</v>
+        <v>1.43207303004102</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1072,51 +1088,51 @@
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.44570555359115</v>
+        <v>0.480288930351435</v>
       </c>
       <c r="D52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.418749277446529</v>
+        <v>0.882758458685678</v>
       </c>
       <c r="E52" s="5" t="n">
         <f aca="true">C52+D52+RAND()/2</f>
-        <v>1.3221371346146</v>
+        <v>1.62405408228738</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.623853863204746</v>
+        <v>0.582498168561871</v>
       </c>
       <c r="D53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.88707130025335</v>
+        <v>0.47863007453782</v>
       </c>
       <c r="E53" s="5" t="n">
         <f aca="true">C53+D53+RAND()/2</f>
-        <v>1.6967648788784</v>
+        <v>1.33925317603248</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.17600782793723</v>
+        <v>0.604146029893294</v>
       </c>
       <c r="D54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.327791075922415</v>
+        <v>0.748862533399895</v>
       </c>
       <c r="E54" s="5" t="n">
         <f aca="true">C54+D54+RAND()/2</f>
-        <v>0.810018851694163</v>
+        <v>1.8517496785998</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1126,69 +1142,69 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.816433813459358</v>
+        <v>0.741344280899767</v>
       </c>
       <c r="D55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.869054224999283</v>
+        <v>0.482899802225376</v>
       </c>
       <c r="E55" s="5" t="n">
         <f aca="true">C55+D55+RAND()/2</f>
-        <v>2.03416650462304</v>
+        <v>1.4647042116654</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139892002658134</v>
+        <v>0.930414141043172</v>
       </c>
       <c r="D56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.613607258780206</v>
+        <v>0.0526480493469973</v>
       </c>
       <c r="E56" s="5" t="n">
         <f aca="true">C56+D56+RAND()/2</f>
-        <v>0.798171620386411</v>
+        <v>1.26829568796481</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.557347273186292</v>
+        <v>0.743753892308078</v>
       </c>
       <c r="D57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.92318858353672</v>
+        <v>0.234359158737144</v>
       </c>
       <c r="E57" s="5" t="n">
         <f aca="true">C57+D57+RAND()/2</f>
-        <v>1.55655161407198</v>
+        <v>1.46474924825847</v>
       </c>
       <c r="F57" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.762588312020087</v>
+        <v>0.989471655035063</v>
       </c>
       <c r="D58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.847886781551713</v>
+        <v>0.842414430285915</v>
       </c>
       <c r="E58" s="5" t="n">
         <f aca="true">C58+D58+RAND()/2</f>
-        <v>1.96802835107749</v>
+        <v>1.86718870520934</v>
       </c>
       <c r="F58" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1198,51 +1214,51 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133694783918705</v>
+        <v>0.575029091857631</v>
       </c>
       <c r="D59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.875994274388456</v>
+        <v>0.914549269885138</v>
       </c>
       <c r="E59" s="5" t="n">
         <f aca="true">C59+D59+RAND()/2</f>
-        <v>1.01448207201226</v>
+        <v>1.91191806320556</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.300887272552917</v>
+        <v>0.962155138070751</v>
       </c>
       <c r="D60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.589252460841722</v>
+        <v>0.575294201673818</v>
       </c>
       <c r="E60" s="5" t="n">
         <f aca="true">C60+D60+RAND()/2</f>
-        <v>0.965325738752368</v>
+        <v>1.65807794604712</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.236256831553738</v>
+        <v>0.659470300964184</v>
       </c>
       <c r="D61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.880101917605784</v>
+        <v>0.237298984999052</v>
       </c>
       <c r="E61" s="5" t="n">
         <f aca="true">C61+D61+RAND()/2</f>
-        <v>1.30190733064867</v>
+        <v>1.12182545706026</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1252,15 +1268,15 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.362820072958349</v>
+        <v>0.0962257457077952</v>
       </c>
       <c r="D62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.569990870217676</v>
+        <v>0.96555048247979</v>
       </c>
       <c r="E62" s="5" t="n">
         <f aca="true">C62+D62+RAND()/2</f>
-        <v>1.05490233800844</v>
+        <v>1.17060840924119</v>
       </c>
       <c r="F62" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1270,15 +1286,15 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.737451480361675</v>
+        <v>0.0595666045356684</v>
       </c>
       <c r="D63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.689654817221543</v>
+        <v>0.938385666821809</v>
       </c>
       <c r="E63" s="5" t="n">
         <f aca="true">C63+D63+RAND()/2</f>
-        <v>1.66406361800443</v>
+        <v>1.41416575730354</v>
       </c>
       <c r="F63" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1288,15 +1304,15 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.216414256231524</v>
+        <v>0.754173512923644</v>
       </c>
       <c r="D64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29670076564315</v>
+        <v>0.953702618732858</v>
       </c>
       <c r="E64" s="5" t="n">
         <f aca="true">C64+D64+RAND()/2</f>
-        <v>0.684354306882664</v>
+        <v>2.02966983532444</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1306,33 +1322,33 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.599454347527888</v>
+        <v>0.107570334033108</v>
       </c>
       <c r="D65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.309182226561629</v>
+        <v>0.417029054323669</v>
       </c>
       <c r="E65" s="5" t="n">
         <f aca="true">C65+D65+RAND()/2</f>
-        <v>1.33421369101186</v>
+        <v>0.963121287997242</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.826805924764641</v>
+        <v>0.0824647956872721</v>
       </c>
       <c r="D66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.736303979097059</v>
+        <v>0.265409986387595</v>
       </c>
       <c r="E66" s="5" t="n">
         <f aca="true">C66+D66+RAND()/2</f>
-        <v>1.65689131416218</v>
+        <v>0.356806028488806</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1342,105 +1358,105 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757774249472046</v>
+        <v>0.103173280169968</v>
       </c>
       <c r="D67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.388851365153934</v>
+        <v>0.469860709077028</v>
       </c>
       <c r="E67" s="5" t="n">
         <f aca="true">C67+D67+RAND()/2</f>
-        <v>1.44566435024971</v>
+        <v>0.826159790149525</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.111616497696655</v>
+        <v>0.500861843355901</v>
       </c>
       <c r="D68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.674588785721418</v>
+        <v>0.322986581900524</v>
       </c>
       <c r="E68" s="5" t="n">
         <f aca="true">C68+D68+RAND()/2</f>
-        <v>1.05081002532734</v>
+        <v>0.981167614976709</v>
       </c>
       <c r="F68" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502332729533614</v>
+        <v>0.121702660250458</v>
       </c>
       <c r="D69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.135920967421005</v>
+        <v>0.828418207717486</v>
       </c>
       <c r="E69" s="5" t="n">
         <f aca="true">C69+D69+RAND()/2</f>
-        <v>0.929650116309602</v>
+        <v>1.41468326084802</v>
       </c>
       <c r="F69" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.459005654804337</v>
+        <v>0.749709788863611</v>
       </c>
       <c r="D70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.838861407397739</v>
+        <v>0.464146409446294</v>
       </c>
       <c r="E70" s="5" t="n">
         <f aca="true">C70+D70+RAND()/2</f>
-        <v>1.6802759263461</v>
+        <v>1.22757486582631</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.401885461916315</v>
+        <v>0.809681601299992</v>
       </c>
       <c r="D71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.456608981433558</v>
+        <v>0.41472184685531</v>
       </c>
       <c r="E71" s="5" t="n">
         <f aca="true">C71+D71+RAND()/2</f>
-        <v>0.924917316541197</v>
+        <v>1.50123977910735</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.264550838554816</v>
+        <v>0.305828815151922</v>
       </c>
       <c r="D72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.787793605211839</v>
+        <v>0.00828265709242095</v>
       </c>
       <c r="E72" s="5" t="n">
         <f aca="true">C72+D72+RAND()/2</f>
-        <v>1.11856480515529</v>
+        <v>0.340773277986348</v>
       </c>
       <c r="F72" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1450,33 +1466,33 @@
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136097776728713</v>
+        <v>0.771669042767358</v>
       </c>
       <c r="D73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.764952923934101</v>
+        <v>0.975990686100741</v>
       </c>
       <c r="E73" s="5" t="n">
         <f aca="true">C73+D73+RAND()/2</f>
-        <v>0.942885148339492</v>
+        <v>2.16826993330701</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0314350391746336</v>
+        <v>0.217437633714443</v>
       </c>
       <c r="D74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.427114882588492</v>
+        <v>0.789910706658387</v>
       </c>
       <c r="E74" s="5" t="n">
         <f aca="true">C74+D74+RAND()/2</f>
-        <v>0.880122957937759</v>
+        <v>1.01528853284562</v>
       </c>
       <c r="F74" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1486,15 +1502,15 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.587330253895152</v>
+        <v>0.436432758749373</v>
       </c>
       <c r="D75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.399370804459256</v>
+        <v>0.736577767000714</v>
       </c>
       <c r="E75" s="5" t="n">
         <f aca="true">C75+D75+RAND()/2</f>
-        <v>1.40837174772607</v>
+        <v>1.20299001094354</v>
       </c>
       <c r="F75" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1504,33 +1520,33 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.138393040403619</v>
+        <v>0.0849352614788692</v>
       </c>
       <c r="D76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172702888015933</v>
+        <v>0.308333021031837</v>
       </c>
       <c r="E76" s="5" t="n">
         <f aca="true">C76+D76+RAND()/2</f>
-        <v>0.631668876961057</v>
+        <v>0.650997817380915</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.723393604528645</v>
+        <v>0.243879212358103</v>
       </c>
       <c r="D77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.714773107539119</v>
+        <v>0.286648906276174</v>
       </c>
       <c r="E77" s="5" t="n">
         <f aca="true">C77+D77+RAND()/2</f>
-        <v>1.83175983410161</v>
+        <v>0.891457821088535</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1540,15 +1556,15 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.465328731973402</v>
+        <v>0.445272357073849</v>
       </c>
       <c r="D78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.972067487170732</v>
+        <v>0.190615985619047</v>
       </c>
       <c r="E78" s="5" t="n">
         <f aca="true">C78+D78+RAND()/2</f>
-        <v>1.47877120985357</v>
+        <v>0.993368719443772</v>
       </c>
       <c r="F78" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1558,15 +1574,15 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.951776635891544</v>
+        <v>0.605244900227322</v>
       </c>
       <c r="D79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129124920572671</v>
+        <v>0.427692063721471</v>
       </c>
       <c r="E79" s="5" t="n">
         <f aca="true">C79+D79+RAND()/2</f>
-        <v>1.52910041171228</v>
+        <v>1.0388532440175</v>
       </c>
       <c r="F79" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1576,15 +1592,15 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.800000535125511</v>
+        <v>0.409523422156452</v>
       </c>
       <c r="D80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.957193119659832</v>
+        <v>0.392653440583657</v>
       </c>
       <c r="E80" s="5" t="n">
         <f aca="true">C80+D80+RAND()/2</f>
-        <v>1.94243058612325</v>
+        <v>0.878017820777484</v>
       </c>
       <c r="F80" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1594,51 +1610,51 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.811310046614516</v>
+        <v>0.569010493627032</v>
       </c>
       <c r="D81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.185405835241281</v>
+        <v>0.829219439728977</v>
       </c>
       <c r="E81" s="5" t="n">
         <f aca="true">C81+D81+RAND()/2</f>
-        <v>1.13785196784428</v>
+        <v>1.6844417875271</v>
       </c>
       <c r="F81" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.93648187645261</v>
+        <v>0.136917529670223</v>
       </c>
       <c r="D82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.672603698173943</v>
+        <v>0.413320667336133</v>
       </c>
       <c r="E82" s="5" t="n">
         <f aca="true">C82+D82+RAND()/2</f>
-        <v>1.9424732371874</v>
+        <v>0.766197665344176</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.204295454810111</v>
+        <v>0.839579738842181</v>
       </c>
       <c r="D83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0684612373483753</v>
+        <v>0.137585655327532</v>
       </c>
       <c r="E83" s="5" t="n">
         <f aca="true">C83+D83+RAND()/2</f>
-        <v>0.327648424978375</v>
+        <v>1.16447709584453</v>
       </c>
       <c r="F83" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1648,69 +1664,69 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.837735517381891</v>
+        <v>0.521547024570512</v>
       </c>
       <c r="D84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.210248821165142</v>
+        <v>0.159212075858344</v>
       </c>
       <c r="E84" s="5" t="n">
         <f aca="true">C84+D84+RAND()/2</f>
-        <v>1.14893090256901</v>
+        <v>1.15810995950973</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.256179832169831</v>
+        <v>0.152292763071882</v>
       </c>
       <c r="D85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.659694922983179</v>
+        <v>0.789599217052864</v>
       </c>
       <c r="E85" s="5" t="n">
         <f aca="true">C85+D85+RAND()/2</f>
-        <v>1.11292280922377</v>
+        <v>1.37684435516815</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.675901246134312</v>
+        <v>0.824307048613954</v>
       </c>
       <c r="D86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.306297505327293</v>
+        <v>0.873889502827563</v>
       </c>
       <c r="E86" s="5" t="n">
         <f aca="true">C86+D86+RAND()/2</f>
-        <v>1.10080199090909</v>
+        <v>1.77736857391035</v>
       </c>
       <c r="F86" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.698693566118202</v>
+        <v>0.247720777784619</v>
       </c>
       <c r="D87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.468798585333039</v>
+        <v>0.56449609334646</v>
       </c>
       <c r="E87" s="5" t="n">
         <f aca="true">C87+D87+RAND()/2</f>
-        <v>1.51787297995232</v>
+        <v>1.24797241790005</v>
       </c>
       <c r="F87" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1720,33 +1736,33 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.467729225206203</v>
+        <v>0.669295262437634</v>
       </c>
       <c r="D88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.28650624854615</v>
+        <v>0.631217309316757</v>
       </c>
       <c r="E88" s="5" t="n">
         <f aca="true">C88+D88+RAND()/2</f>
-        <v>1.10045624986606</v>
+        <v>1.74737029734929</v>
       </c>
       <c r="F88" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.346660748626286</v>
+        <v>0.98051576345285</v>
       </c>
       <c r="D89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.323906003983832</v>
+        <v>0.936217851181175</v>
       </c>
       <c r="E89" s="5" t="n">
         <f aca="true">C89+D89+RAND()/2</f>
-        <v>0.9147949983055</v>
+        <v>2.01438876654197</v>
       </c>
       <c r="F89" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1756,69 +1772,69 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.365751284837459</v>
+        <v>0.539841691400551</v>
       </c>
       <c r="D90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.779552448589523</v>
+        <v>0.133402989184416</v>
       </c>
       <c r="E90" s="5" t="n">
         <f aca="true">C90+D90+RAND()/2</f>
-        <v>1.50363527109871</v>
+        <v>1.10453033474701</v>
       </c>
       <c r="F90" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.422369716324261</v>
+        <v>0.41130376663216</v>
       </c>
       <c r="D91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.848010930389575</v>
+        <v>0.164102041110028</v>
       </c>
       <c r="E91" s="5" t="n">
         <f aca="true">C91+D91+RAND()/2</f>
-        <v>1.47174312391416</v>
+        <v>0.938925011721818</v>
       </c>
       <c r="F91" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.523604758664342</v>
+        <v>0.765569994871346</v>
       </c>
       <c r="D92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.852219498838083</v>
+        <v>0.296172380377762</v>
       </c>
       <c r="E92" s="5" t="n">
         <f aca="true">C92+D92+RAND()/2</f>
-        <v>1.74933658290668</v>
+        <v>1.25420789416614</v>
       </c>
       <c r="F92" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.859864240582681</v>
+        <v>0.564589189683372</v>
       </c>
       <c r="D93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.675155875159531</v>
+        <v>0.227476255567635</v>
       </c>
       <c r="E93" s="5" t="n">
         <f aca="true">C93+D93+RAND()/2</f>
-        <v>1.62776981299383</v>
+        <v>0.84974561208923</v>
       </c>
       <c r="F93" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1828,105 +1844,105 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967257947174896</v>
+        <v>0.228342398608868</v>
       </c>
       <c r="D94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.777587947964017</v>
+        <v>0.42314939046321</v>
       </c>
       <c r="E94" s="5" t="n">
         <f aca="true">C94+D94+RAND()/2</f>
-        <v>2.00639954891833</v>
+        <v>0.696217600529057</v>
       </c>
       <c r="F94" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.776399307878121</v>
+        <v>0.455088249502603</v>
       </c>
       <c r="D95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.117575981026976</v>
+        <v>0.0218501890165532</v>
       </c>
       <c r="E95" s="5" t="n">
         <f aca="true">C95+D95+RAND()/2</f>
-        <v>0.91397876518428</v>
+        <v>0.733192504305754</v>
       </c>
       <c r="F95" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.371380484879042</v>
+        <v>0.113187947878382</v>
       </c>
       <c r="D96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.659761784609187</v>
+        <v>0.851750245231899</v>
       </c>
       <c r="E96" s="5" t="n">
         <f aca="true">C96+D96+RAND()/2</f>
-        <v>1.50868882471522</v>
+        <v>1.23091834667123</v>
       </c>
       <c r="F96" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.218659921958207</v>
+        <v>0.821312492215763</v>
       </c>
       <c r="D97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.785793566965231</v>
+        <v>0.374214453814731</v>
       </c>
       <c r="E97" s="5" t="n">
         <f aca="true">C97+D97+RAND()/2</f>
-        <v>1.14601841254618</v>
+        <v>1.61402155100479</v>
       </c>
       <c r="F97" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.308811074439951</v>
+        <v>0.679007556497718</v>
       </c>
       <c r="D98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.22873899728454</v>
+        <v>0.863574402883045</v>
       </c>
       <c r="E98" s="5" t="n">
         <f aca="true">C98+D98+RAND()/2</f>
-        <v>1.01203207422624</v>
+        <v>1.9537040459322</v>
       </c>
       <c r="F98" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.223920330973582</v>
+        <v>0.3790243810924</v>
       </c>
       <c r="D99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.560700004709107</v>
+        <v>0.342532702139544</v>
       </c>
       <c r="E99" s="5" t="n">
         <f aca="true">C99+D99+RAND()/2</f>
-        <v>1.24703134174108</v>
+        <v>1.09542272872931</v>
       </c>
       <c r="F99" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1936,33 +1952,33 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.376009910109069</v>
+        <v>0.577773984869045</v>
       </c>
       <c r="D100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.247857436921735</v>
+        <v>0.0461365615898385</v>
       </c>
       <c r="E100" s="5" t="n">
         <f aca="true">C100+D100+RAND()/2</f>
-        <v>0.816838627224241</v>
+        <v>0.915915199759248</v>
       </c>
       <c r="F100" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.230189603358087</v>
+        <v>0.795831103861029</v>
       </c>
       <c r="D101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.476414144277367</v>
+        <v>0.870216428552268</v>
       </c>
       <c r="E101" s="5" t="n">
         <f aca="true">C101+D101+RAND()/2</f>
-        <v>0.78685715501123</v>
+        <v>2.13160369229491</v>
       </c>
       <c r="F101" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1972,51 +1988,51 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.701587605504835</v>
+        <v>0.73741441541547</v>
       </c>
       <c r="D102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.68889451490329</v>
+        <v>0.911615046608563</v>
       </c>
       <c r="E102" s="5" t="n">
         <f aca="true">C102+D102+RAND()/2</f>
-        <v>1.67789240629847</v>
+        <v>1.68246791015859</v>
       </c>
       <c r="F102" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.894647389825385</v>
+        <v>0.15238426247298</v>
       </c>
       <c r="D103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967030112432422</v>
+        <v>0.577132939551938</v>
       </c>
       <c r="E103" s="5" t="n">
         <f aca="true">C103+D103+RAND()/2</f>
-        <v>2.08278897947371</v>
+        <v>1.19460062295235</v>
       </c>
       <c r="F103" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.642513867680422</v>
+        <v>0.910244512931576</v>
       </c>
       <c r="D104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.677198897303803</v>
+        <v>0.0987613488969416</v>
       </c>
       <c r="E104" s="5" t="n">
         <f aca="true">C104+D104+RAND()/2</f>
-        <v>1.42077315819736</v>
+        <v>1.4538076560185</v>
       </c>
       <c r="F104" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2026,15 +2042,15 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.485374125662833</v>
+        <v>0.858884615562702</v>
       </c>
       <c r="D105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.497717391712933</v>
+        <v>0.166301601486868</v>
       </c>
       <c r="E105" s="5" t="n">
         <f aca="true">C105+D105+RAND()/2</f>
-        <v>1.21917594814411</v>
+        <v>1.39815296406236</v>
       </c>
       <c r="F105" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2044,15 +2060,15 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.469247061616837</v>
+        <v>0.129948062280256</v>
       </c>
       <c r="D106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502500640732959</v>
+        <v>0.720678052675618</v>
       </c>
       <c r="E106" s="5" t="n">
         <f aca="true">C106+D106+RAND()/2</f>
-        <v>1.34429549776974</v>
+        <v>1.27666449351322</v>
       </c>
       <c r="F106" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2062,33 +2078,33 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0874727442963309</v>
+        <v>0.594251794796063</v>
       </c>
       <c r="D107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.72518245922586</v>
+        <v>0.793128062876127</v>
       </c>
       <c r="E107" s="5" t="n">
         <f aca="true">C107+D107+RAND()/2</f>
-        <v>1.14580449417105</v>
+        <v>1.49601312912417</v>
       </c>
       <c r="F107" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.389925029490693</v>
+        <v>0.375429877422932</v>
       </c>
       <c r="D108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.955647480683524</v>
+        <v>0.208522009153364</v>
       </c>
       <c r="E108" s="5" t="n">
         <f aca="true">C108+D108+RAND()/2</f>
-        <v>1.73441422717714</v>
+        <v>0.921804331874709</v>
       </c>
       <c r="F108" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2098,15 +2114,15 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0366945910127924</v>
+        <v>0.32485722478185</v>
       </c>
       <c r="D109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.822092647773196</v>
+        <v>0.307439186915037</v>
       </c>
       <c r="E109" s="5" t="n">
         <f aca="true">C109+D109+RAND()/2</f>
-        <v>1.03858810939049</v>
+        <v>0.911996694599069</v>
       </c>
       <c r="F109" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2116,33 +2132,33 @@
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.736016122783167</v>
+        <v>0.0868298912633646</v>
       </c>
       <c r="D110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.253037832267015</v>
+        <v>0.774404514209913</v>
       </c>
       <c r="E110" s="5" t="n">
         <f aca="true">C110+D110+RAND()/2</f>
-        <v>1.18166244902732</v>
+        <v>0.935074021537517</v>
       </c>
       <c r="F110" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.654803945488615</v>
+        <v>0.922575507819532</v>
       </c>
       <c r="D111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.895145879933247</v>
+        <v>0.942778776645485</v>
       </c>
       <c r="E111" s="5" t="n">
         <f aca="true">C111+D111+RAND()/2</f>
-        <v>2.02231208531471</v>
+        <v>2.1680557195274</v>
       </c>
       <c r="F111" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2152,33 +2168,33 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.550242876719273</v>
+        <v>0.0486521204562777</v>
       </c>
       <c r="D112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0608806545252143</v>
+        <v>0.820824048634251</v>
       </c>
       <c r="E112" s="5" t="n">
         <f aca="true">C112+D112+RAND()/2</f>
-        <v>0.977468457499254</v>
+        <v>0.987459146692524</v>
       </c>
       <c r="F112" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.256038503393867</v>
+        <v>0.29346527118224</v>
       </c>
       <c r="D113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.624040812107997</v>
+        <v>0.955586798446928</v>
       </c>
       <c r="E113" s="5" t="n">
         <f aca="true">C113+D113+RAND()/2</f>
-        <v>0.925982580898195</v>
+        <v>1.7304987660218</v>
       </c>
       <c r="F113" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2188,69 +2204,69 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.315298981574697</v>
+        <v>0.495306652654529</v>
       </c>
       <c r="D114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0829407893563862</v>
+        <v>0.319428095598431</v>
       </c>
       <c r="E114" s="5" t="n">
         <f aca="true">C114+D114+RAND()/2</f>
-        <v>0.853337570446898</v>
+        <v>1.07537169404631</v>
       </c>
       <c r="F114" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.471424060308953</v>
+        <v>0.0602309475474701</v>
       </c>
       <c r="D115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.91476796450916</v>
+        <v>0.0717991734088678</v>
       </c>
       <c r="E115" s="5" t="n">
         <f aca="true">C115+D115+RAND()/2</f>
-        <v>1.61170950757076</v>
+        <v>0.145191673960611</v>
       </c>
       <c r="F115" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.555446197060772</v>
+        <v>0.412270879702772</v>
       </c>
       <c r="D116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.343144943341956</v>
+        <v>0.778577033584057</v>
       </c>
       <c r="E116" s="5" t="n">
         <f aca="true">C116+D116+RAND()/2</f>
-        <v>0.952415491584557</v>
+        <v>1.22577138088281</v>
       </c>
       <c r="F116" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.526956441011369</v>
+        <v>0.991548797324205</v>
       </c>
       <c r="D117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.959612549314458</v>
+        <v>0.325807642356983</v>
       </c>
       <c r="E117" s="5" t="n">
         <f aca="true">C117+D117+RAND()/2</f>
-        <v>1.69506620021051</v>
+        <v>1.69437683703028</v>
       </c>
       <c r="F117" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2260,51 +2276,51 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.399551160873082</v>
+        <v>0.825026001731054</v>
       </c>
       <c r="D118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.271254588001493</v>
+        <v>0.051654367216004</v>
       </c>
       <c r="E118" s="5" t="n">
         <f aca="true">C118+D118+RAND()/2</f>
-        <v>0.828131135518187</v>
+        <v>0.957087715781868</v>
       </c>
       <c r="F118" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.423631434651038</v>
+        <v>0.676541312800953</v>
       </c>
       <c r="D119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.675483726203808</v>
+        <v>0.765972100658688</v>
       </c>
       <c r="E119" s="5" t="n">
         <f aca="true">C119+D119+RAND()/2</f>
-        <v>1.10668072845489</v>
+        <v>1.70311141660693</v>
       </c>
       <c r="F119" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.339745116560724</v>
+        <v>0.513425445715146</v>
       </c>
       <c r="D120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136006725205372</v>
+        <v>0.0334574794541573</v>
       </c>
       <c r="E120" s="5" t="n">
         <f aca="true">C120+D120+RAND()/2</f>
-        <v>0.913060393802721</v>
+        <v>0.918542174641157</v>
       </c>
       <c r="F120" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2314,15 +2330,15 @@
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.30898244747315</v>
+        <v>0.834923200347653</v>
       </c>
       <c r="D121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.110537301537405</v>
+        <v>0.616750800713201</v>
       </c>
       <c r="E121" s="5" t="n">
         <f aca="true">C121+D121+RAND()/2</f>
-        <v>0.473231266571871</v>
+        <v>1.82653708157246</v>
       </c>
       <c r="F121" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2332,15 +2348,15 @@
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0349484500597508</v>
+        <v>0.357763007537227</v>
       </c>
       <c r="D122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.952483453497463</v>
+        <v>0.955162328636219</v>
       </c>
       <c r="E122" s="5" t="n">
         <f aca="true">C122+D122+RAND()/2</f>
-        <v>1.11962990541283</v>
+        <v>1.78190198615711</v>
       </c>
       <c r="F122" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2350,69 +2366,69 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0455101528198129</v>
+        <v>0.481770191310885</v>
       </c>
       <c r="D123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.20997351196546</v>
+        <v>0.410779885730402</v>
       </c>
       <c r="E123" s="5" t="n">
         <f aca="true">C123+D123+RAND()/2</f>
-        <v>0.271405991750475</v>
+        <v>1.02798143374206</v>
       </c>
       <c r="F123" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.3561481556942</v>
+        <v>0.312175550061823</v>
       </c>
       <c r="D124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235191404476747</v>
+        <v>0.750008530373827</v>
       </c>
       <c r="E124" s="5" t="n">
         <f aca="true">C124+D124+RAND()/2</f>
-        <v>0.861979475132304</v>
+        <v>1.16470593458159</v>
       </c>
       <c r="F124" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.629821126821118</v>
+        <v>0.4539244124623</v>
       </c>
       <c r="D125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.617135926052366</v>
+        <v>0.97749312358881</v>
       </c>
       <c r="E125" s="5" t="n">
         <f aca="true">C125+D125+RAND()/2</f>
-        <v>1.70448982301551</v>
+        <v>1.55958753526179</v>
       </c>
       <c r="F125" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.740975977377056</v>
+        <v>0.311758185766495</v>
       </c>
       <c r="D126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.443986781677474</v>
+        <v>0.177350173364654</v>
       </c>
       <c r="E126" s="5" t="n">
         <f aca="true">C126+D126+RAND()/2</f>
-        <v>1.45936262886154</v>
+        <v>0.534256871001684</v>
       </c>
       <c r="F126" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2422,15 +2438,15 @@
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.782571215722678</v>
+        <v>0.129391896709269</v>
       </c>
       <c r="D127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.148227901482561</v>
+        <v>0.264770874406262</v>
       </c>
       <c r="E127" s="5" t="n">
         <f aca="true">C127+D127+RAND()/2</f>
-        <v>1.41057244909453</v>
+        <v>0.758301727118724</v>
       </c>
       <c r="F127" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2440,15 +2456,15 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136939533121759</v>
+        <v>0.022107926889383</v>
       </c>
       <c r="D128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.24632642476113</v>
+        <v>0.573279846001552</v>
       </c>
       <c r="E128" s="5" t="n">
         <f aca="true">C128+D128+RAND()/2</f>
-        <v>0.423693039455438</v>
+        <v>0.867930539855036</v>
       </c>
       <c r="F128" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2458,15 +2474,15 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.94145816848875</v>
+        <v>0.869323047547908</v>
       </c>
       <c r="D129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.26371492414498</v>
+        <v>0.223509491503379</v>
       </c>
       <c r="E129" s="5" t="n">
         <f aca="true">C129+D129+RAND()/2</f>
-        <v>1.3834662745857</v>
+        <v>1.26040911067914</v>
       </c>
       <c r="F129" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2476,15 +2492,15 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.662776601898945</v>
+        <v>0.277612647572998</v>
       </c>
       <c r="D130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.523694567698364</v>
+        <v>0.00750954961385244</v>
       </c>
       <c r="E130" s="5" t="n">
         <f aca="true">C130+D130+RAND()/2</f>
-        <v>1.33996334671761</v>
+        <v>0.734244103939033</v>
       </c>
       <c r="F130" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2494,37 +2510,19 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.840387315322568</v>
+        <v>0.0825043676687495</v>
       </c>
       <c r="D131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0814062768311278</v>
+        <v>0.831515136169467</v>
       </c>
       <c r="E131" s="5" t="n">
         <f aca="true">C131+D131+RAND()/2</f>
-        <v>1.25040130188335</v>
+        <v>1.05467963554173</v>
       </c>
       <c r="F131" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="5" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0398392139061041</v>
-      </c>
-      <c r="D132" s="5" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.765209790248715</v>
-      </c>
-      <c r="E132" s="5" t="n">
-        <f aca="true">C132+D132+RAND()/2</f>
-        <v>1.22686350121213</v>
-      </c>
-      <c r="F132" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheet_complex2.xlsx
+++ b/data/spreadsheet_complex2.xlsx
@@ -209,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +250,6 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -261,7 +260,6 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -272,7 +270,6 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -283,7 +280,6 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -294,7 +290,6 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -305,21 +300,18 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -350,15 +342,15 @@
       </c>
       <c r="C12" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.487165687866343</v>
+        <v>0.313115889581682</v>
       </c>
       <c r="D12" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.760714545624462</v>
+        <v>0.133033739800875</v>
       </c>
       <c r="E12" s="5" t="n">
         <f aca="true">C12+D12+RAND()/2</f>
-        <v>1.57816395709954</v>
+        <v>0.458519727143952</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -374,19 +366,19 @@
       </c>
       <c r="C13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.823516570117908</v>
+        <v>0.778293742742189</v>
       </c>
       <c r="D13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.832839043758089</v>
+        <v>0.867084812858154</v>
       </c>
       <c r="E13" s="5" t="n">
         <f aca="true">C13+D13+RAND()/2</f>
-        <v>2.04804603690095</v>
+        <v>1.95501128435586</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,15 +390,15 @@
       </c>
       <c r="C14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.489286728569868</v>
+        <v>0.738083168643448</v>
       </c>
       <c r="D14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.49546419504379</v>
+        <v>0.10904018115216</v>
       </c>
       <c r="E14" s="5" t="n">
         <f aca="true">C14+D14+RAND()/2</f>
-        <v>1.4028450583513</v>
+        <v>1.11126309435869</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -422,15 +414,15 @@
       </c>
       <c r="C15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0937151243571713</v>
+        <v>0.177338715321356</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.683712634463779</v>
+        <v>0.644758490338566</v>
       </c>
       <c r="E15" s="5" t="n">
         <f aca="true">C15+D15+RAND()/2</f>
-        <v>1.19232506931623</v>
+        <v>0.899466378890236</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -440,15 +432,15 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.987058107917462</v>
+        <v>0.0422743293734795</v>
       </c>
       <c r="D16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.864058721546113</v>
+        <v>0.252616119181289</v>
       </c>
       <c r="E16" s="5" t="n">
         <f aca="true">C16+D16+RAND()/2</f>
-        <v>2.13148794145624</v>
+        <v>0.79425076446925</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -458,15 +450,15 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.769424450047132</v>
+        <v>0.700335783366919</v>
       </c>
       <c r="D17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.075017998275918</v>
+        <v>0.688382931564639</v>
       </c>
       <c r="E17" s="5" t="n">
         <f aca="true">C17+D17+RAND()/2</f>
-        <v>1.08752039656831</v>
+        <v>1.51662193372524</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -476,69 +468,69 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.246372381599878</v>
+        <v>0.691547931990404</v>
       </c>
       <c r="D18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.903344299261421</v>
+        <v>0.326784632841306</v>
       </c>
       <c r="E18" s="5" t="n">
         <f aca="true">C18+D18+RAND()/2</f>
-        <v>1.25192911571914</v>
+        <v>1.43589297009415</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.175457430649207</v>
+        <v>0.987706705314668</v>
       </c>
       <c r="D19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.483628747340216</v>
+        <v>0.13272803445061</v>
       </c>
       <c r="E19" s="5" t="n">
         <f aca="true">C19+D19+RAND()/2</f>
-        <v>1.07265229008578</v>
+        <v>1.46655582559095</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.195452478752019</v>
+        <v>0.202965957584538</v>
       </c>
       <c r="D20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.273258353864312</v>
+        <v>0.723644666331686</v>
       </c>
       <c r="E20" s="5" t="n">
         <f aca="true">C20+D20+RAND()/2</f>
-        <v>0.793736528106047</v>
+        <v>1.18891886336954</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.768791442687073</v>
+        <v>0.887520548141257</v>
       </c>
       <c r="D21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.930621367735451</v>
+        <v>0.154731465309819</v>
       </c>
       <c r="E21" s="5" t="n">
         <f aca="true">C21+D21+RAND()/2</f>
-        <v>1.8481989442573</v>
+        <v>1.11352147079562</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -548,15 +540,15 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.233637652283891</v>
+        <v>0.281410285107751</v>
       </c>
       <c r="D22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.900071609375002</v>
+        <v>0.180384521594877</v>
       </c>
       <c r="E22" s="5" t="n">
         <f aca="true">C22+D22+RAND()/2</f>
-        <v>1.1702685190949</v>
+        <v>0.544175830104696</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -566,15 +558,15 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967462017155872</v>
+        <v>0.864503069241577</v>
       </c>
       <c r="D23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0312515487009748</v>
+        <v>0.195153668662183</v>
       </c>
       <c r="E23" s="5" t="n">
         <f aca="true">C23+D23+RAND()/2</f>
-        <v>1.17870878873136</v>
+        <v>1.16268399308272</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -584,15 +576,15 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.890313454381231</v>
+        <v>0.491926554673808</v>
       </c>
       <c r="D24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.773530933436759</v>
+        <v>0.607545788608726</v>
       </c>
       <c r="E24" s="5" t="n">
         <f aca="true">C24+D24+RAND()/2</f>
-        <v>1.89296276250408</v>
+        <v>1.38796357191558</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -602,123 +594,123 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.276141545552493</v>
+        <v>0.415372683993143</v>
       </c>
       <c r="D25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.309679266747373</v>
+        <v>0.51574950239759</v>
       </c>
       <c r="E25" s="5" t="n">
         <f aca="true">C25+D25+RAND()/2</f>
-        <v>0.762437814216224</v>
+        <v>1.32389228646109</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.835237832999352</v>
+        <v>0.345254553850154</v>
       </c>
       <c r="D26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.844458119438273</v>
+        <v>0.853277359145681</v>
       </c>
       <c r="E26" s="5" t="n">
         <f aca="true">C26+D26+RAND()/2</f>
-        <v>2.03662881364036</v>
+        <v>1.54222753125988</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.284537815962127</v>
+        <v>0.562235923220485</v>
       </c>
       <c r="D27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.598170071469723</v>
+        <v>0.218581744545998</v>
       </c>
       <c r="E27" s="5" t="n">
         <f aca="true">C27+D27+RAND()/2</f>
-        <v>1.33537581367876</v>
+        <v>1.20865336846161</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.316713941822318</v>
+        <v>0.788012750935395</v>
       </c>
       <c r="D28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498314767951008</v>
+        <v>0.689654148504372</v>
       </c>
       <c r="E28" s="5" t="n">
         <f aca="true">C28+D28+RAND()/2</f>
-        <v>1.00172313097677</v>
+        <v>1.76229166844414</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4353465780146</v>
+        <v>0.842001426603959</v>
       </c>
       <c r="D29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.743941704086095</v>
+        <v>0.116812108391416</v>
       </c>
       <c r="E29" s="5" t="n">
         <f aca="true">C29+D29+RAND()/2</f>
-        <v>1.49410514985496</v>
+        <v>1.31381887325795</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.270804949839026</v>
+        <v>0.677796811610134</v>
       </c>
       <c r="D30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.111227559500261</v>
+        <v>0.696592330735373</v>
       </c>
       <c r="E30" s="5" t="n">
         <f aca="true">C30+D30+RAND()/2</f>
-        <v>0.388666400481571</v>
+        <v>1.75173643191319</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.49754339206565</v>
+        <v>0.913384921062436</v>
       </c>
       <c r="D31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.694751724111284</v>
+        <v>0.781783426363594</v>
       </c>
       <c r="E31" s="5" t="n">
         <f aca="true">C31+D31+RAND()/2</f>
-        <v>1.24432008659526</v>
+        <v>2.11679786133677</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -728,15 +720,15 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.457310420397396</v>
+        <v>0.777005335790021</v>
       </c>
       <c r="D32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0601973985706141</v>
+        <v>0.0100500428585334</v>
       </c>
       <c r="E32" s="5" t="n">
         <f aca="true">C32+D32+RAND()/2</f>
-        <v>0.521090229151844</v>
+        <v>1.08984270119851</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -746,33 +738,33 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.354507775844081</v>
+        <v>0.24387748964213</v>
       </c>
       <c r="D33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.667289980856883</v>
+        <v>0.152671806259557</v>
       </c>
       <c r="E33" s="5" t="n">
         <f aca="true">C33+D33+RAND()/2</f>
-        <v>1.39564387760416</v>
+        <v>0.400765561109797</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.327823960659842</v>
+        <v>0.00483602558021077</v>
       </c>
       <c r="D34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133113504842734</v>
+        <v>0.733335816241231</v>
       </c>
       <c r="E34" s="5" t="n">
         <f aca="true">C34+D34+RAND()/2</f>
-        <v>0.687792995709994</v>
+        <v>1.14487115598789</v>
       </c>
       <c r="F34" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -782,51 +774,51 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.432981401392419</v>
+        <v>0.917752719906951</v>
       </c>
       <c r="D35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.550375128463734</v>
+        <v>0.0868575627697588</v>
       </c>
       <c r="E35" s="5" t="n">
         <f aca="true">C35+D35+RAND()/2</f>
-        <v>1.25369377931097</v>
+        <v>1.01932595942969</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.997671811958687</v>
+        <v>0.563237125723175</v>
       </c>
       <c r="D36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.756508114569477</v>
+        <v>0.878355043743429</v>
       </c>
       <c r="E36" s="5" t="n">
         <f aca="true">C36+D36+RAND()/2</f>
-        <v>1.76997799307998</v>
+        <v>1.7689526073624</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.313441130438587</v>
+        <v>0.181184732294383</v>
       </c>
       <c r="D37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.806361609419129</v>
+        <v>0.392976831305194</v>
       </c>
       <c r="E37" s="5" t="n">
         <f aca="true">C37+D37+RAND()/2</f>
-        <v>1.39495139077534</v>
+        <v>0.815014799239671</v>
       </c>
       <c r="F37" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -836,15 +828,15 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.143605486273988</v>
+        <v>0.429242689017419</v>
       </c>
       <c r="D38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.873204325040363</v>
+        <v>0.351112517216727</v>
       </c>
       <c r="E38" s="5" t="n">
         <f aca="true">C38+D38+RAND()/2</f>
-        <v>1.4881588155684</v>
+        <v>1.20375611949252</v>
       </c>
       <c r="F38" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -854,51 +846,51 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.918513820956218</v>
+        <v>0.483539663763446</v>
       </c>
       <c r="D39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4899327169534</v>
+        <v>0.355781950474019</v>
       </c>
       <c r="E39" s="5" t="n">
         <f aca="true">C39+D39+RAND()/2</f>
-        <v>1.49508906491805</v>
+        <v>1.24976903422946</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503768478274044</v>
+        <v>0.672906251962104</v>
       </c>
       <c r="D40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.374288530660414</v>
+        <v>0.0507120426349531</v>
       </c>
       <c r="E40" s="5" t="n">
         <f aca="true">C40+D40+RAND()/2</f>
-        <v>0.905612755133848</v>
+        <v>0.78864624543499</v>
       </c>
       <c r="F40" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.938565001096227</v>
+        <v>0.552605855713908</v>
       </c>
       <c r="D41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.73463721702908</v>
+        <v>0.73030152409021</v>
       </c>
       <c r="E41" s="5" t="n">
         <f aca="true">C41+D41+RAND()/2</f>
-        <v>2.16556069474247</v>
+        <v>1.75998951133939</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -908,105 +900,105 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.621386222626562</v>
+        <v>0.307125479249325</v>
       </c>
       <c r="D42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.657100142888375</v>
+        <v>0.702967501985401</v>
       </c>
       <c r="E42" s="5" t="n">
         <f aca="true">C42+D42+RAND()/2</f>
-        <v>1.42967193396665</v>
+        <v>1.34879167837527</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.83707361559415</v>
+        <v>0.542567413363865</v>
       </c>
       <c r="D43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0149360775331711</v>
+        <v>0.978189236830875</v>
       </c>
       <c r="E43" s="5" t="n">
         <f aca="true">C43+D43+RAND()/2</f>
-        <v>1.31850713925217</v>
+        <v>1.72003791878737</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.479928749896623</v>
+        <v>0.904613032534381</v>
       </c>
       <c r="D44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.974203092320723</v>
+        <v>0.798910873920617</v>
       </c>
       <c r="E44" s="5" t="n">
         <f aca="true">C44+D44+RAND()/2</f>
-        <v>1.50907428430975</v>
+        <v>1.85924814975781</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.693009223015342</v>
+        <v>0.0808126447885093</v>
       </c>
       <c r="D45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.456485533998135</v>
+        <v>0.60104271624369</v>
       </c>
       <c r="E45" s="5" t="n">
         <f aca="true">C45+D45+RAND()/2</f>
-        <v>1.29367055032697</v>
+        <v>1.126347800704</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0580461611071103</v>
+        <v>0.926638558734173</v>
       </c>
       <c r="D46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0846280049879538</v>
+        <v>0.4708569171164</v>
       </c>
       <c r="E46" s="5" t="n">
         <f aca="true">C46+D46+RAND()/2</f>
-        <v>0.365527337741726</v>
+        <v>1.4355044655888</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.726661926972615</v>
+        <v>0.801301016524232</v>
       </c>
       <c r="D47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0505069125470902</v>
+        <v>0.85908826983874</v>
       </c>
       <c r="E47" s="5" t="n">
         <f aca="true">C47+D47+RAND()/2</f>
-        <v>1.22170434324377</v>
+        <v>1.90384877136455</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1016,33 +1008,33 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.79044218259206</v>
+        <v>0.665975132989606</v>
       </c>
       <c r="D48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.449824859216927</v>
+        <v>0.724073910313436</v>
       </c>
       <c r="E48" s="5" t="n">
         <f aca="true">C48+D48+RAND()/2</f>
-        <v>1.46900349977684</v>
+        <v>1.80054892652773</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.693665019842379</v>
+        <v>0.726365800596175</v>
       </c>
       <c r="D49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.142637098486953</v>
+        <v>0.451758247080359</v>
       </c>
       <c r="E49" s="5" t="n">
         <f aca="true">C49+D49+RAND()/2</f>
-        <v>1.11054073610651</v>
+        <v>1.21614041534715</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1052,69 +1044,69 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.640329984872388</v>
+        <v>0.384867657352359</v>
       </c>
       <c r="D50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.242908628972753</v>
+        <v>0.392975738085173</v>
       </c>
       <c r="E50" s="5" t="n">
         <f aca="true">C50+D50+RAND()/2</f>
-        <v>1.19656447120306</v>
+        <v>1.17885345235453</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.832322424318219</v>
+        <v>0.304452962007532</v>
       </c>
       <c r="D51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.338186928484624</v>
+        <v>0.130923164908863</v>
       </c>
       <c r="E51" s="5" t="n">
         <f aca="true">C51+D51+RAND()/2</f>
-        <v>1.43207303004102</v>
+        <v>0.533337546766229</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.480288930351435</v>
+        <v>0.567043588529702</v>
       </c>
       <c r="D52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.882758458685678</v>
+        <v>0.948569594707238</v>
       </c>
       <c r="E52" s="5" t="n">
         <f aca="true">C52+D52+RAND()/2</f>
-        <v>1.62405408228738</v>
+        <v>1.66414353632378</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.582498168561871</v>
+        <v>0.00712156383665739</v>
       </c>
       <c r="D53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.47863007453782</v>
+        <v>0.698699872182966</v>
       </c>
       <c r="E53" s="5" t="n">
         <f aca="true">C53+D53+RAND()/2</f>
-        <v>1.33925317603248</v>
+        <v>0.891660354974661</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1124,123 +1116,123 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.604146029893294</v>
+        <v>0.0891799885475181</v>
       </c>
       <c r="D54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.748862533399895</v>
+        <v>0.494967891671249</v>
       </c>
       <c r="E54" s="5" t="n">
         <f aca="true">C54+D54+RAND()/2</f>
-        <v>1.8517496785998</v>
+        <v>0.835737483084368</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.741344280899767</v>
+        <v>0.398920600742158</v>
       </c>
       <c r="D55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.482899802225376</v>
+        <v>0.330184611255482</v>
       </c>
       <c r="E55" s="5" t="n">
         <f aca="true">C55+D55+RAND()/2</f>
-        <v>1.4647042116654</v>
+        <v>0.934002856414686</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.930414141043172</v>
+        <v>0.40656993741665</v>
       </c>
       <c r="D56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0526480493469973</v>
+        <v>0.813430346468343</v>
       </c>
       <c r="E56" s="5" t="n">
         <f aca="true">C56+D56+RAND()/2</f>
-        <v>1.26829568796481</v>
+        <v>1.42270658591922</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.743753892308078</v>
+        <v>0.622430494031483</v>
       </c>
       <c r="D57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.234359158737144</v>
+        <v>0.317537921330462</v>
       </c>
       <c r="E57" s="5" t="n">
         <f aca="true">C57+D57+RAND()/2</f>
-        <v>1.46474924825847</v>
+        <v>1.18819745866379</v>
       </c>
       <c r="F57" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.989471655035063</v>
+        <v>0.919122498893112</v>
       </c>
       <c r="D58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.842414430285915</v>
+        <v>0.435022879943184</v>
       </c>
       <c r="E58" s="5" t="n">
         <f aca="true">C58+D58+RAND()/2</f>
-        <v>1.86718870520934</v>
+        <v>1.8433206878145</v>
       </c>
       <c r="F58" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.575029091857631</v>
+        <v>0.538340597756099</v>
       </c>
       <c r="D59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.914549269885138</v>
+        <v>0.475800802277138</v>
       </c>
       <c r="E59" s="5" t="n">
         <f aca="true">C59+D59+RAND()/2</f>
-        <v>1.91191806320556</v>
+        <v>1.47689910155165</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.962155138070751</v>
+        <v>0.0273492044446439</v>
       </c>
       <c r="D60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.575294201673818</v>
+        <v>0.407030595773034</v>
       </c>
       <c r="E60" s="5" t="n">
         <f aca="true">C60+D60+RAND()/2</f>
-        <v>1.65807794604712</v>
+        <v>0.445047785884379</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1250,69 +1242,69 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.659470300964184</v>
+        <v>0.700627589408924</v>
       </c>
       <c r="D61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.237298984999052</v>
+        <v>0.511165826167981</v>
       </c>
       <c r="E61" s="5" t="n">
         <f aca="true">C61+D61+RAND()/2</f>
-        <v>1.12182545706026</v>
+        <v>1.41719301623899</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0962257457077952</v>
+        <v>0.0439492624625423</v>
       </c>
       <c r="D62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.96555048247979</v>
+        <v>0.324998128639871</v>
       </c>
       <c r="E62" s="5" t="n">
         <f aca="true">C62+D62+RAND()/2</f>
-        <v>1.17060840924119</v>
+        <v>0.777037358125583</v>
       </c>
       <c r="F62" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0595666045356684</v>
+        <v>0.132494003865028</v>
       </c>
       <c r="D63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.938385666821809</v>
+        <v>0.0089061157801029</v>
       </c>
       <c r="E63" s="5" t="n">
         <f aca="true">C63+D63+RAND()/2</f>
-        <v>1.41416575730354</v>
+        <v>0.278312870051893</v>
       </c>
       <c r="F63" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.754173512923644</v>
+        <v>0.996466520413891</v>
       </c>
       <c r="D64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.953702618732858</v>
+        <v>0.717206178846034</v>
       </c>
       <c r="E64" s="5" t="n">
         <f aca="true">C64+D64+RAND()/2</f>
-        <v>2.02966983532444</v>
+        <v>2.01833600202374</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1322,33 +1314,33 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.107570334033108</v>
+        <v>0.220650636996691</v>
       </c>
       <c r="D65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.417029054323669</v>
+        <v>0.607327857559557</v>
       </c>
       <c r="E65" s="5" t="n">
         <f aca="true">C65+D65+RAND()/2</f>
-        <v>0.963121287997242</v>
+        <v>1.20161686516903</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0824647956872721</v>
+        <v>0.458530738425021</v>
       </c>
       <c r="D66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.265409986387595</v>
+        <v>0.823164993640428</v>
       </c>
       <c r="E66" s="5" t="n">
         <f aca="true">C66+D66+RAND()/2</f>
-        <v>0.356806028488806</v>
+        <v>1.50856175434819</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1358,51 +1350,51 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.103173280169968</v>
+        <v>0.894749555880867</v>
       </c>
       <c r="D67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.469860709077028</v>
+        <v>0.000192240273502954</v>
       </c>
       <c r="E67" s="5" t="n">
         <f aca="true">C67+D67+RAND()/2</f>
-        <v>0.826159790149525</v>
+        <v>1.15535719162591</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.500861843355901</v>
+        <v>0.544313542304155</v>
       </c>
       <c r="D68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.322986581900524</v>
+        <v>0.295186119283891</v>
       </c>
       <c r="E68" s="5" t="n">
         <f aca="true">C68+D68+RAND()/2</f>
-        <v>0.981167614976709</v>
+        <v>1.28496899629551</v>
       </c>
       <c r="F68" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.121702660250458</v>
+        <v>0.494387621703753</v>
       </c>
       <c r="D69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.828418207717486</v>
+        <v>0.343123727695055</v>
       </c>
       <c r="E69" s="5" t="n">
         <f aca="true">C69+D69+RAND()/2</f>
-        <v>1.41468326084802</v>
+        <v>1.19343754667253</v>
       </c>
       <c r="F69" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1412,87 +1404,87 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.749709788863611</v>
+        <v>0.798541711496356</v>
       </c>
       <c r="D70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.464146409446294</v>
+        <v>0.879283864786898</v>
       </c>
       <c r="E70" s="5" t="n">
         <f aca="true">C70+D70+RAND()/2</f>
-        <v>1.22757486582631</v>
+        <v>1.75336122310732</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.809681601299992</v>
+        <v>0.0684832039842894</v>
       </c>
       <c r="D71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.41472184685531</v>
+        <v>0.618916479204563</v>
       </c>
       <c r="E71" s="5" t="n">
         <f aca="true">C71+D71+RAND()/2</f>
-        <v>1.50123977910735</v>
+        <v>1.18044230739271</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.305828815151922</v>
+        <v>0.94346120887379</v>
       </c>
       <c r="D72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00828265709242095</v>
+        <v>0.8936071587367</v>
       </c>
       <c r="E72" s="5" t="n">
         <f aca="true">C72+D72+RAND()/2</f>
-        <v>0.340773277986348</v>
+        <v>2.05599560753627</v>
       </c>
       <c r="F72" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.771669042767358</v>
+        <v>0.954784941482365</v>
       </c>
       <c r="D73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.975990686100741</v>
+        <v>0.36137205050521</v>
       </c>
       <c r="E73" s="5" t="n">
         <f aca="true">C73+D73+RAND()/2</f>
-        <v>2.16826993330701</v>
+        <v>1.43562982916317</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.217437633714443</v>
+        <v>0.549763127033227</v>
       </c>
       <c r="D74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.789910706658387</v>
+        <v>0.665669693026885</v>
       </c>
       <c r="E74" s="5" t="n">
         <f aca="true">C74+D74+RAND()/2</f>
-        <v>1.01528853284562</v>
+        <v>1.37434485978315</v>
       </c>
       <c r="F74" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1502,33 +1494,33 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.436432758749373</v>
+        <v>0.808548934934603</v>
       </c>
       <c r="D75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.736577767000714</v>
+        <v>0.856479541592709</v>
       </c>
       <c r="E75" s="5" t="n">
         <f aca="true">C75+D75+RAND()/2</f>
-        <v>1.20299001094354</v>
+        <v>2.01326354645546</v>
       </c>
       <c r="F75" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0849352614788692</v>
+        <v>0.300990345224391</v>
       </c>
       <c r="D76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.308333021031837</v>
+        <v>0.930309647395023</v>
       </c>
       <c r="E76" s="5" t="n">
         <f aca="true">C76+D76+RAND()/2</f>
-        <v>0.650997817380915</v>
+        <v>1.59322344775193</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1538,69 +1530,69 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.243879212358103</v>
+        <v>0.0574902100499396</v>
       </c>
       <c r="D77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.286648906276174</v>
+        <v>0.743092508483294</v>
       </c>
       <c r="E77" s="5" t="n">
         <f aca="true">C77+D77+RAND()/2</f>
-        <v>0.891457821088535</v>
+        <v>0.960056115231403</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.445272357073849</v>
+        <v>0.219423030884559</v>
       </c>
       <c r="D78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.190615985619047</v>
+        <v>0.630420033607725</v>
       </c>
       <c r="E78" s="5" t="n">
         <f aca="true">C78+D78+RAND()/2</f>
-        <v>0.993368719443772</v>
+        <v>0.879988140705314</v>
       </c>
       <c r="F78" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.605244900227322</v>
+        <v>0.431899784994517</v>
       </c>
       <c r="D79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.427692063721471</v>
+        <v>0.700879531023651</v>
       </c>
       <c r="E79" s="5" t="n">
         <f aca="true">C79+D79+RAND()/2</f>
-        <v>1.0388532440175</v>
+        <v>1.49525859414892</v>
       </c>
       <c r="F79" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.409523422156452</v>
+        <v>0.1553123572004</v>
       </c>
       <c r="D80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.392653440583657</v>
+        <v>0.473596513770589</v>
       </c>
       <c r="E80" s="5" t="n">
         <f aca="true">C80+D80+RAND()/2</f>
-        <v>0.878017820777484</v>
+        <v>0.723632503596579</v>
       </c>
       <c r="F80" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1610,15 +1602,15 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.569010493627032</v>
+        <v>0.28788742645505</v>
       </c>
       <c r="D81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.829219439728977</v>
+        <v>0.914274985868433</v>
       </c>
       <c r="E81" s="5" t="n">
         <f aca="true">C81+D81+RAND()/2</f>
-        <v>1.6844417875271</v>
+        <v>1.44193273354505</v>
       </c>
       <c r="F81" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1628,15 +1620,15 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136917529670223</v>
+        <v>0.924726917151245</v>
       </c>
       <c r="D82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.413320667336133</v>
+        <v>0.272009064916547</v>
       </c>
       <c r="E82" s="5" t="n">
         <f aca="true">C82+D82+RAND()/2</f>
-        <v>0.766197665344176</v>
+        <v>1.51272344977218</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1646,69 +1638,69 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.839579738842181</v>
+        <v>0.511490451950659</v>
       </c>
       <c r="D83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.137585655327532</v>
+        <v>0.991531426730037</v>
       </c>
       <c r="E83" s="5" t="n">
         <f aca="true">C83+D83+RAND()/2</f>
-        <v>1.16447709584453</v>
+        <v>1.90403381960399</v>
       </c>
       <c r="F83" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.521547024570512</v>
+        <v>0.931713619436796</v>
       </c>
       <c r="D84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.159212075858344</v>
+        <v>0.97101326496944</v>
       </c>
       <c r="E84" s="5" t="n">
         <f aca="true">C84+D84+RAND()/2</f>
-        <v>1.15810995950973</v>
+        <v>2.03997945735194</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.152292763071882</v>
+        <v>0.769557833931783</v>
       </c>
       <c r="D85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.789599217052864</v>
+        <v>0.547479180907464</v>
       </c>
       <c r="E85" s="5" t="n">
         <f aca="true">C85+D85+RAND()/2</f>
-        <v>1.37684435516815</v>
+        <v>1.38546633923481</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.824307048613954</v>
+        <v>0.698176889265389</v>
       </c>
       <c r="D86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.873889502827563</v>
+        <v>0.667880238353842</v>
       </c>
       <c r="E86" s="5" t="n">
         <f aca="true">C86+D86+RAND()/2</f>
-        <v>1.77736857391035</v>
+        <v>1.58039388301264</v>
       </c>
       <c r="F86" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1718,51 +1710,51 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.247720777784619</v>
+        <v>0.0122922449820103</v>
       </c>
       <c r="D87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.56449609334646</v>
+        <v>0.11772751109544</v>
       </c>
       <c r="E87" s="5" t="n">
         <f aca="true">C87+D87+RAND()/2</f>
-        <v>1.24797241790005</v>
+        <v>0.435469376040394</v>
       </c>
       <c r="F87" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.669295262437634</v>
+        <v>0.506295994178068</v>
       </c>
       <c r="D88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.631217309316757</v>
+        <v>0.207029072655575</v>
       </c>
       <c r="E88" s="5" t="n">
         <f aca="true">C88+D88+RAND()/2</f>
-        <v>1.74737029734929</v>
+        <v>0.824467078013305</v>
       </c>
       <c r="F88" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.98051576345285</v>
+        <v>0.565598447707021</v>
       </c>
       <c r="D89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.936217851181175</v>
+        <v>0.704772520633725</v>
       </c>
       <c r="E89" s="5" t="n">
         <f aca="true">C89+D89+RAND()/2</f>
-        <v>2.01438876654197</v>
+        <v>1.57630428028146</v>
       </c>
       <c r="F89" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1772,69 +1764,69 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.539841691400551</v>
+        <v>0.840084200961182</v>
       </c>
       <c r="D90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133402989184416</v>
+        <v>0.437286312563491</v>
       </c>
       <c r="E90" s="5" t="n">
         <f aca="true">C90+D90+RAND()/2</f>
-        <v>1.10453033474701</v>
+        <v>1.6506658805621</v>
       </c>
       <c r="F90" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.41130376663216</v>
+        <v>0.873722124195205</v>
       </c>
       <c r="D91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.164102041110028</v>
+        <v>0.415000544320294</v>
       </c>
       <c r="E91" s="5" t="n">
         <f aca="true">C91+D91+RAND()/2</f>
-        <v>0.938925011721818</v>
+        <v>1.62197690341465</v>
       </c>
       <c r="F91" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.765569994871346</v>
+        <v>0.109800934511377</v>
       </c>
       <c r="D92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.296172380377762</v>
+        <v>0.554313255272206</v>
       </c>
       <c r="E92" s="5" t="n">
         <f aca="true">C92+D92+RAND()/2</f>
-        <v>1.25420789416614</v>
+        <v>0.737495249622902</v>
       </c>
       <c r="F92" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.564589189683372</v>
+        <v>0.454605691784902</v>
       </c>
       <c r="D93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.227476255567635</v>
+        <v>0.437146669066607</v>
       </c>
       <c r="E93" s="5" t="n">
         <f aca="true">C93+D93+RAND()/2</f>
-        <v>0.84974561208923</v>
+        <v>1.31093721250818</v>
       </c>
       <c r="F93" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1844,15 +1836,15 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.228342398608868</v>
+        <v>0.820610672015753</v>
       </c>
       <c r="D94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.42314939046321</v>
+        <v>0.131887392075672</v>
       </c>
       <c r="E94" s="5" t="n">
         <f aca="true">C94+D94+RAND()/2</f>
-        <v>0.696217600529057</v>
+        <v>1.3973318443287</v>
       </c>
       <c r="F94" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1862,15 +1854,15 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.455088249502603</v>
+        <v>0.413819068146362</v>
       </c>
       <c r="D95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0218501890165532</v>
+        <v>0.231891934635836</v>
       </c>
       <c r="E95" s="5" t="n">
         <f aca="true">C95+D95+RAND()/2</f>
-        <v>0.733192504305754</v>
+        <v>0.916300663906478</v>
       </c>
       <c r="F95" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1880,51 +1872,51 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.113187947878382</v>
+        <v>0.898205544699726</v>
       </c>
       <c r="D96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.851750245231899</v>
+        <v>0.685612860776915</v>
       </c>
       <c r="E96" s="5" t="n">
         <f aca="true">C96+D96+RAND()/2</f>
-        <v>1.23091834667123</v>
+        <v>2.01476111365748</v>
       </c>
       <c r="F96" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.821312492215763</v>
+        <v>0.654703011650819</v>
       </c>
       <c r="D97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.374214453814731</v>
+        <v>0.280680959933103</v>
       </c>
       <c r="E97" s="5" t="n">
         <f aca="true">C97+D97+RAND()/2</f>
-        <v>1.61402155100479</v>
+        <v>1.17892468255549</v>
       </c>
       <c r="F97" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.679007556497718</v>
+        <v>0.621959133802943</v>
       </c>
       <c r="D98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.863574402883045</v>
+        <v>0.620002624622059</v>
       </c>
       <c r="E98" s="5" t="n">
         <f aca="true">C98+D98+RAND()/2</f>
-        <v>1.9537040459322</v>
+        <v>1.6458008262473</v>
       </c>
       <c r="F98" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1934,123 +1926,123 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.3790243810924</v>
+        <v>0.966775284644988</v>
       </c>
       <c r="D99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.342532702139544</v>
+        <v>0.345477166072473</v>
       </c>
       <c r="E99" s="5" t="n">
         <f aca="true">C99+D99+RAND()/2</f>
-        <v>1.09542272872931</v>
+        <v>1.48858706130184</v>
       </c>
       <c r="F99" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.577773984869045</v>
+        <v>0.835830869951877</v>
       </c>
       <c r="D100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0461365615898385</v>
+        <v>0.484310248525556</v>
       </c>
       <c r="E100" s="5" t="n">
         <f aca="true">C100+D100+RAND()/2</f>
-        <v>0.915915199759248</v>
+        <v>1.7661617804476</v>
       </c>
       <c r="F100" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.795831103861029</v>
+        <v>0.410663997122361</v>
       </c>
       <c r="D101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.870216428552268</v>
+        <v>0.469382648896438</v>
       </c>
       <c r="E101" s="5" t="n">
         <f aca="true">C101+D101+RAND()/2</f>
-        <v>2.13160369229491</v>
+        <v>1.05586444904708</v>
       </c>
       <c r="F101" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.73741441541547</v>
+        <v>0.00625989515427389</v>
       </c>
       <c r="D102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.911615046608563</v>
+        <v>0.498180508924204</v>
       </c>
       <c r="E102" s="5" t="n">
         <f aca="true">C102+D102+RAND()/2</f>
-        <v>1.68246791015859</v>
+        <v>0.793181882738426</v>
       </c>
       <c r="F102" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.15238426247298</v>
+        <v>0.33251622475797</v>
       </c>
       <c r="D103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.577132939551938</v>
+        <v>0.421184860690595</v>
       </c>
       <c r="E103" s="5" t="n">
         <f aca="true">C103+D103+RAND()/2</f>
-        <v>1.19460062295235</v>
+        <v>1.16451610522162</v>
       </c>
       <c r="F103" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.910244512931576</v>
+        <v>0.927894188779417</v>
       </c>
       <c r="D104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0987613488969416</v>
+        <v>0.266283204811427</v>
       </c>
       <c r="E104" s="5" t="n">
         <f aca="true">C104+D104+RAND()/2</f>
-        <v>1.4538076560185</v>
+        <v>1.35582782336754</v>
       </c>
       <c r="F104" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.858884615562702</v>
+        <v>0.28799341329222</v>
       </c>
       <c r="D105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.166301601486868</v>
+        <v>0.914303367567739</v>
       </c>
       <c r="E105" s="5" t="n">
         <f aca="true">C105+D105+RAND()/2</f>
-        <v>1.39815296406236</v>
+        <v>1.65035411356855</v>
       </c>
       <c r="F105" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2060,33 +2052,33 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129948062280256</v>
+        <v>0.099612518735323</v>
       </c>
       <c r="D106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.720678052675618</v>
+        <v>0.420683114109187</v>
       </c>
       <c r="E106" s="5" t="n">
         <f aca="true">C106+D106+RAND()/2</f>
-        <v>1.27666449351322</v>
+        <v>0.900198555714115</v>
       </c>
       <c r="F106" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.594251794796063</v>
+        <v>0.453471889907532</v>
       </c>
       <c r="D107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.793128062876127</v>
+        <v>0.652387381716159</v>
       </c>
       <c r="E107" s="5" t="n">
         <f aca="true">C107+D107+RAND()/2</f>
-        <v>1.49601312912417</v>
+        <v>1.4941104178914</v>
       </c>
       <c r="F107" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2096,15 +2088,15 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.375429877422932</v>
+        <v>0.950604862231558</v>
       </c>
       <c r="D108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.208522009153364</v>
+        <v>0.0717435276015001</v>
       </c>
       <c r="E108" s="5" t="n">
         <f aca="true">C108+D108+RAND()/2</f>
-        <v>0.921804331874709</v>
+        <v>1.43554207430492</v>
       </c>
       <c r="F108" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2114,15 +2106,15 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.32485722478185</v>
+        <v>0.472969603970648</v>
       </c>
       <c r="D109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.307439186915037</v>
+        <v>0.533302861344509</v>
       </c>
       <c r="E109" s="5" t="n">
         <f aca="true">C109+D109+RAND()/2</f>
-        <v>0.911996694599069</v>
+        <v>1.34818727723756</v>
       </c>
       <c r="F109" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2132,33 +2124,33 @@
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0868298912633646</v>
+        <v>0.384856953157059</v>
       </c>
       <c r="D110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.774404514209913</v>
+        <v>0.848332439756667</v>
       </c>
       <c r="E110" s="5" t="n">
         <f aca="true">C110+D110+RAND()/2</f>
-        <v>0.935074021537517</v>
+        <v>1.2768076699904</v>
       </c>
       <c r="F110" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.922575507819532</v>
+        <v>0.280228225662491</v>
       </c>
       <c r="D111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.942778776645485</v>
+        <v>0.136910073826569</v>
       </c>
       <c r="E111" s="5" t="n">
         <f aca="true">C111+D111+RAND()/2</f>
-        <v>2.1680557195274</v>
+        <v>0.736168691757667</v>
       </c>
       <c r="F111" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2168,15 +2160,15 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0486521204562777</v>
+        <v>0.186412181916034</v>
       </c>
       <c r="D112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.820824048634251</v>
+        <v>0.681538978799792</v>
       </c>
       <c r="E112" s="5" t="n">
         <f aca="true">C112+D112+RAND()/2</f>
-        <v>0.987459146692524</v>
+        <v>1.12440746014388</v>
       </c>
       <c r="F112" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2186,15 +2178,15 @@
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29346527118224</v>
+        <v>0.211998853593572</v>
       </c>
       <c r="D113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.955586798446928</v>
+        <v>0.162908331795962</v>
       </c>
       <c r="E113" s="5" t="n">
         <f aca="true">C113+D113+RAND()/2</f>
-        <v>1.7304987660218</v>
+        <v>0.692777628030763</v>
       </c>
       <c r="F113" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2204,15 +2196,15 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.495306652654529</v>
+        <v>0.996374761571287</v>
       </c>
       <c r="D114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.319428095598431</v>
+        <v>0.357470410377637</v>
       </c>
       <c r="E114" s="5" t="n">
         <f aca="true">C114+D114+RAND()/2</f>
-        <v>1.07537169404631</v>
+        <v>1.41044466330194</v>
       </c>
       <c r="F114" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2222,87 +2214,87 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0602309475474701</v>
+        <v>0.708423260813671</v>
       </c>
       <c r="D115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0717991734088678</v>
+        <v>0.197990048975652</v>
       </c>
       <c r="E115" s="5" t="n">
         <f aca="true">C115+D115+RAND()/2</f>
-        <v>0.145191673960611</v>
+        <v>1.04479656246976</v>
       </c>
       <c r="F115" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.412270879702772</v>
+        <v>0.0152562618170775</v>
       </c>
       <c r="D116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.778577033584057</v>
+        <v>0.366461502797561</v>
       </c>
       <c r="E116" s="5" t="n">
         <f aca="true">C116+D116+RAND()/2</f>
-        <v>1.22577138088281</v>
+        <v>0.781936465912696</v>
       </c>
       <c r="F116" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.991548797324205</v>
+        <v>0.983399048511047</v>
       </c>
       <c r="D117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.325807642356983</v>
+        <v>0.882692755008276</v>
       </c>
       <c r="E117" s="5" t="n">
         <f aca="true">C117+D117+RAND()/2</f>
-        <v>1.69437683703028</v>
+        <v>2.10246428289462</v>
       </c>
       <c r="F117" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.825026001731054</v>
+        <v>0.235061630417629</v>
       </c>
       <c r="D118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.051654367216004</v>
+        <v>0.5633683832099</v>
       </c>
       <c r="E118" s="5" t="n">
         <f aca="true">C118+D118+RAND()/2</f>
-        <v>0.957087715781868</v>
+        <v>1.03235111821032</v>
       </c>
       <c r="F118" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676541312800953</v>
+        <v>0.51465125735753</v>
       </c>
       <c r="D119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.765972100658688</v>
+        <v>0.952000283712008</v>
       </c>
       <c r="E119" s="5" t="n">
         <f aca="true">C119+D119+RAND()/2</f>
-        <v>1.70311141660693</v>
+        <v>1.79607026804233</v>
       </c>
       <c r="F119" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2312,15 +2304,15 @@
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.513425445715146</v>
+        <v>0.453360777453469</v>
       </c>
       <c r="D120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0334574794541573</v>
+        <v>0.255622979822013</v>
       </c>
       <c r="E120" s="5" t="n">
         <f aca="true">C120+D120+RAND()/2</f>
-        <v>0.918542174641157</v>
+        <v>1.20161242952442</v>
       </c>
       <c r="F120" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2330,15 +2322,15 @@
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.834923200347653</v>
+        <v>0.455109576658356</v>
       </c>
       <c r="D121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.616750800713201</v>
+        <v>0.114422739736944</v>
       </c>
       <c r="E121" s="5" t="n">
         <f aca="true">C121+D121+RAND()/2</f>
-        <v>1.82653708157246</v>
+        <v>1.06845330705685</v>
       </c>
       <c r="F121" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2348,51 +2340,51 @@
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.357763007537227</v>
+        <v>0.326253806919975</v>
       </c>
       <c r="D122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.955162328636219</v>
+        <v>0.449929601594443</v>
       </c>
       <c r="E122" s="5" t="n">
         <f aca="true">C122+D122+RAND()/2</f>
-        <v>1.78190198615711</v>
+        <v>1.27019384710527</v>
       </c>
       <c r="F122" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.481770191310885</v>
+        <v>0.498233349744141</v>
       </c>
       <c r="D123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.410779885730402</v>
+        <v>0.29922862663143</v>
       </c>
       <c r="E123" s="5" t="n">
         <f aca="true">C123+D123+RAND()/2</f>
-        <v>1.02798143374206</v>
+        <v>0.991074523965228</v>
       </c>
       <c r="F123" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.312175550061823</v>
+        <v>0.32958018934792</v>
       </c>
       <c r="D124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.750008530373827</v>
+        <v>0.847107069426491</v>
       </c>
       <c r="E124" s="5" t="n">
         <f aca="true">C124+D124+RAND()/2</f>
-        <v>1.16470593458159</v>
+        <v>1.19152837992775</v>
       </c>
       <c r="F124" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2402,15 +2394,15 @@
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4539244124623</v>
+        <v>0.91190027415449</v>
       </c>
       <c r="D125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.97749312358881</v>
+        <v>0.135486877198628</v>
       </c>
       <c r="E125" s="5" t="n">
         <f aca="true">C125+D125+RAND()/2</f>
-        <v>1.55958753526179</v>
+        <v>1.26234453489331</v>
       </c>
       <c r="F125" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2420,51 +2412,51 @@
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.311758185766495</v>
+        <v>0.990518392910861</v>
       </c>
       <c r="D126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.177350173364654</v>
+        <v>0.852190089635195</v>
       </c>
       <c r="E126" s="5" t="n">
         <f aca="true">C126+D126+RAND()/2</f>
-        <v>0.534256871001684</v>
+        <v>2.01080675056093</v>
       </c>
       <c r="F126" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129391896709269</v>
+        <v>0.242333048006806</v>
       </c>
       <c r="D127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.264770874406262</v>
+        <v>0.534738322193466</v>
       </c>
       <c r="E127" s="5" t="n">
         <f aca="true">C127+D127+RAND()/2</f>
-        <v>0.758301727118724</v>
+        <v>1.1652109833224</v>
       </c>
       <c r="F127" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.022107926889383</v>
+        <v>0.489140059895273</v>
       </c>
       <c r="D128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.573279846001552</v>
+        <v>0.305203155792897</v>
       </c>
       <c r="E128" s="5" t="n">
         <f aca="true">C128+D128+RAND()/2</f>
-        <v>0.867930539855036</v>
+        <v>1.26343703623072</v>
       </c>
       <c r="F128" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2474,15 +2466,15 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.869323047547908</v>
+        <v>0.946406601874869</v>
       </c>
       <c r="D129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.223509491503379</v>
+        <v>0.949149510802745</v>
       </c>
       <c r="E129" s="5" t="n">
         <f aca="true">C129+D129+RAND()/2</f>
-        <v>1.26040911067914</v>
+        <v>1.99672787598837</v>
       </c>
       <c r="F129" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2492,33 +2484,33 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.277612647572998</v>
+        <v>0.706617925374688</v>
       </c>
       <c r="D130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00750954961385244</v>
+        <v>0.0483247219584223</v>
       </c>
       <c r="E130" s="5" t="n">
         <f aca="true">C130+D130+RAND()/2</f>
-        <v>0.734244103939033</v>
+        <v>1.04797709074632</v>
       </c>
       <c r="F130" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0825043676687495</v>
+        <v>0.779645968656954</v>
       </c>
       <c r="D131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.831515136169467</v>
+        <v>0.706996492536119</v>
       </c>
       <c r="E131" s="5" t="n">
         <f aca="true">C131+D131+RAND()/2</f>
-        <v>1.05467963554173</v>
+        <v>1.53531668794908</v>
       </c>
       <c r="F131" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>

--- a/data/spreadsheet_complex2.xlsx
+++ b/data/spreadsheet_complex2.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">--categoricals</t>
   </si>
   <si>
-    <t xml:space="preserve">s x0</t>
+    <t xml:space="preserve">s,x0</t>
   </si>
   <si>
     <t xml:space="preserve">--nan</t>
@@ -204,6 +204,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -212,7 +318,7 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:I131"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,15 +448,15 @@
       </c>
       <c r="C12" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.313115889581682</v>
+        <v>0.917940762109005</v>
       </c>
       <c r="D12" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133033739800875</v>
+        <v>0.0882567048102127</v>
       </c>
       <c r="E12" s="5" t="n">
         <f aca="true">C12+D12+RAND()/2</f>
-        <v>0.458519727143952</v>
+        <v>1.06393114424597</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -366,15 +472,15 @@
       </c>
       <c r="C13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.778293742742189</v>
+        <v>0.97466814081099</v>
       </c>
       <c r="D13" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.867084812858154</v>
+        <v>0.95445082427106</v>
       </c>
       <c r="E13" s="5" t="n">
         <f aca="true">C13+D13+RAND()/2</f>
-        <v>1.95501128435586</v>
+        <v>2.25868310180585</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -390,19 +496,19 @@
       </c>
       <c r="C14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.738083168643448</v>
+        <v>0.494152216600509</v>
       </c>
       <c r="D14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.10904018115216</v>
+        <v>0.776713915687134</v>
       </c>
       <c r="E14" s="5" t="n">
         <f aca="true">C14+D14+RAND()/2</f>
-        <v>1.11126309435869</v>
+        <v>1.70124761033204</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,15 +520,15 @@
       </c>
       <c r="C15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.177338715321356</v>
+        <v>0.156901280399541</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.644758490338566</v>
+        <v>0.688816035391643</v>
       </c>
       <c r="E15" s="5" t="n">
         <f aca="true">C15+D15+RAND()/2</f>
-        <v>0.899466378890236</v>
+        <v>0.897892221051789</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -432,15 +538,15 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0422743293734795</v>
+        <v>0.756473252542416</v>
       </c>
       <c r="D16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.252616119181289</v>
+        <v>0.659164950537835</v>
       </c>
       <c r="E16" s="5" t="n">
         <f aca="true">C16+D16+RAND()/2</f>
-        <v>0.79425076446925</v>
+        <v>1.49077102377442</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -450,69 +556,69 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.700335783366919</v>
+        <v>0.913309736863158</v>
       </c>
       <c r="D17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.688382931564639</v>
+        <v>0.713090636549198</v>
       </c>
       <c r="E17" s="5" t="n">
         <f aca="true">C17+D17+RAND()/2</f>
-        <v>1.51662193372524</v>
+        <v>1.90665513122203</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.691547931990404</v>
+        <v>0.310232340445898</v>
       </c>
       <c r="D18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.326784632841306</v>
+        <v>0.377509101032635</v>
       </c>
       <c r="E18" s="5" t="n">
         <f aca="true">C18+D18+RAND()/2</f>
-        <v>1.43589297009415</v>
+        <v>1.12902590836418</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.987706705314668</v>
+        <v>0.648874139934427</v>
       </c>
       <c r="D19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.13272803445061</v>
+        <v>0.850907443893409</v>
       </c>
       <c r="E19" s="5" t="n">
         <f aca="true">C19+D19+RAND()/2</f>
-        <v>1.46655582559095</v>
+        <v>1.71380520098512</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.202965957584538</v>
+        <v>0.627204143355268</v>
       </c>
       <c r="D20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.723644666331686</v>
+        <v>0.337680281163067</v>
       </c>
       <c r="E20" s="5" t="n">
         <f aca="true">C20+D20+RAND()/2</f>
-        <v>1.18891886336954</v>
+        <v>1.35973135133241</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -522,15 +628,15 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.887520548141257</v>
+        <v>0.0860983787175984</v>
       </c>
       <c r="D21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.154731465309819</v>
+        <v>0.301890202846439</v>
       </c>
       <c r="E21" s="5" t="n">
         <f aca="true">C21+D21+RAND()/2</f>
-        <v>1.11352147079562</v>
+        <v>0.860635977713088</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -540,33 +646,33 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.281410285107751</v>
+        <v>0.811041860388529</v>
       </c>
       <c r="D22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.180384521594877</v>
+        <v>0.739676115478693</v>
       </c>
       <c r="E22" s="5" t="n">
         <f aca="true">C22+D22+RAND()/2</f>
-        <v>0.544175830104696</v>
+        <v>1.69475306798254</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.864503069241577</v>
+        <v>0.245369368816083</v>
       </c>
       <c r="D23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.195153668662183</v>
+        <v>0.523859657886847</v>
       </c>
       <c r="E23" s="5" t="n">
         <f aca="true">C23+D23+RAND()/2</f>
-        <v>1.16268399308272</v>
+        <v>1.20149723629216</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -576,33 +682,33 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.491926554673808</v>
+        <v>0.543377331651666</v>
       </c>
       <c r="D24" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.607545788608726</v>
+        <v>0.890448722244098</v>
       </c>
       <c r="E24" s="5" t="n">
         <f aca="true">C24+D24+RAND()/2</f>
-        <v>1.38796357191558</v>
+        <v>1.52363424365632</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.415372683993143</v>
+        <v>0.159786988160293</v>
       </c>
       <c r="D25" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.51574950239759</v>
+        <v>0.0738425586469095</v>
       </c>
       <c r="E25" s="5" t="n">
         <f aca="true">C25+D25+RAND()/2</f>
-        <v>1.32389228646109</v>
+        <v>0.293243933376333</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -612,87 +718,87 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.345254553850154</v>
+        <v>0.717964351662047</v>
       </c>
       <c r="D26" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.853277359145681</v>
+        <v>0.50465231908293</v>
       </c>
       <c r="E26" s="5" t="n">
         <f aca="true">C26+D26+RAND()/2</f>
-        <v>1.54222753125988</v>
+        <v>1.49166746458753</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.562235923220485</v>
+        <v>0.18504508425671</v>
       </c>
       <c r="D27" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.218581744545998</v>
+        <v>0.962778491755256</v>
       </c>
       <c r="E27" s="5" t="n">
         <f aca="true">C27+D27+RAND()/2</f>
-        <v>1.20865336846161</v>
+        <v>1.61696142556083</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.788012750935395</v>
+        <v>0.299269851328238</v>
       </c>
       <c r="D28" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.689654148504372</v>
+        <v>0.961214275970178</v>
       </c>
       <c r="E28" s="5" t="n">
         <f aca="true">C28+D28+RAND()/2</f>
-        <v>1.76229166844414</v>
+        <v>1.60675489667642</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.842001426603959</v>
+        <v>0.0386392959065577</v>
       </c>
       <c r="D29" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.116812108391416</v>
+        <v>0.585597208921981</v>
       </c>
       <c r="E29" s="5" t="n">
         <f aca="true">C29+D29+RAND()/2</f>
-        <v>1.31381887325795</v>
+        <v>0.665815753715529</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.677796811610134</v>
+        <v>0.6029937877836</v>
       </c>
       <c r="D30" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.696592330735373</v>
+        <v>0.986297998353497</v>
       </c>
       <c r="E30" s="5" t="n">
         <f aca="true">C30+D30+RAND()/2</f>
-        <v>1.75173643191319</v>
+        <v>1.70374880604125</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -702,33 +808,33 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.913384921062436</v>
+        <v>0.15763035664777</v>
       </c>
       <c r="D31" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.781783426363594</v>
+        <v>0.562323883879906</v>
       </c>
       <c r="E31" s="5" t="n">
         <f aca="true">C31+D31+RAND()/2</f>
-        <v>2.11679786133677</v>
+        <v>0.90791054580555</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.777005335790021</v>
+        <v>0.549730172130008</v>
       </c>
       <c r="D32" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0100500428585334</v>
+        <v>0.275101586543614</v>
       </c>
       <c r="E32" s="5" t="n">
         <f aca="true">C32+D32+RAND()/2</f>
-        <v>1.08984270119851</v>
+        <v>1.07743273814671</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -738,51 +844,51 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.24387748964213</v>
+        <v>0.0675829131467095</v>
       </c>
       <c r="D33" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.152671806259557</v>
+        <v>0.137758013178758</v>
       </c>
       <c r="E33" s="5" t="n">
         <f aca="true">C33+D33+RAND()/2</f>
-        <v>0.400765561109797</v>
+        <v>0.344163404392486</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00483602558021077</v>
+        <v>0.968869040430919</v>
       </c>
       <c r="D34" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.733335816241231</v>
+        <v>0.170323188712759</v>
       </c>
       <c r="E34" s="5" t="n">
         <f aca="true">C34+D34+RAND()/2</f>
-        <v>1.14487115598789</v>
+        <v>1.38914895581386</v>
       </c>
       <c r="F34" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917752719906951</v>
+        <v>0.655692580433844</v>
       </c>
       <c r="D35" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0868575627697588</v>
+        <v>0.110096177742124</v>
       </c>
       <c r="E35" s="5" t="n">
         <f aca="true">C35+D35+RAND()/2</f>
-        <v>1.01932595942969</v>
+        <v>1.07141479049821</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -792,15 +898,15 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.563237125723175</v>
+        <v>0.297360135237336</v>
       </c>
       <c r="D36" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.878355043743429</v>
+        <v>0.306029079971308</v>
       </c>
       <c r="E36" s="5" t="n">
         <f aca="true">C36+D36+RAND()/2</f>
-        <v>1.7689526073624</v>
+        <v>0.764613391182615</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -810,15 +916,15 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.181184732294383</v>
+        <v>0.742429118541079</v>
       </c>
       <c r="D37" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.392976831305194</v>
+        <v>0.0545740787541596</v>
       </c>
       <c r="E37" s="5" t="n">
         <f aca="true">C37+D37+RAND()/2</f>
-        <v>0.815014799239671</v>
+        <v>0.839452649633621</v>
       </c>
       <c r="F37" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -828,15 +934,15 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.429242689017419</v>
+        <v>0.759230853388939</v>
       </c>
       <c r="D38" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.351112517216727</v>
+        <v>0.459306913337852</v>
       </c>
       <c r="E38" s="5" t="n">
         <f aca="true">C38+D38+RAND()/2</f>
-        <v>1.20375611949252</v>
+        <v>1.34380036182885</v>
       </c>
       <c r="F38" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -846,15 +952,15 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.483539663763446</v>
+        <v>0.116632141120174</v>
       </c>
       <c r="D39" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.355781950474019</v>
+        <v>0.615623273172935</v>
       </c>
       <c r="E39" s="5" t="n">
         <f aca="true">C39+D39+RAND()/2</f>
-        <v>1.24976903422946</v>
+        <v>1.23149220026651</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -864,51 +970,51 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.672906251962104</v>
+        <v>0.0318227717237883</v>
       </c>
       <c r="D40" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0507120426349531</v>
+        <v>0.804039547021543</v>
       </c>
       <c r="E40" s="5" t="n">
         <f aca="true">C40+D40+RAND()/2</f>
-        <v>0.78864624543499</v>
+        <v>0.89928601538201</v>
       </c>
       <c r="F40" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.552605855713908</v>
+        <v>0.474594827389108</v>
       </c>
       <c r="D41" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.73030152409021</v>
+        <v>0.135133976357534</v>
       </c>
       <c r="E41" s="5" t="n">
         <f aca="true">C41+D41+RAND()/2</f>
-        <v>1.75998951133939</v>
+        <v>0.759965806505606</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.307125479249325</v>
+        <v>0.283510475366693</v>
       </c>
       <c r="D42" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.702967501985401</v>
+        <v>0.332662805837434</v>
       </c>
       <c r="E42" s="5" t="n">
         <f aca="true">C42+D42+RAND()/2</f>
-        <v>1.34879167837527</v>
+        <v>0.67305028410096</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -918,15 +1024,15 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.542567413363865</v>
+        <v>0.499715975856802</v>
       </c>
       <c r="D43" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.978189236830875</v>
+        <v>0.999857592649609</v>
       </c>
       <c r="E43" s="5" t="n">
         <f aca="true">C43+D43+RAND()/2</f>
-        <v>1.72003791878737</v>
+        <v>1.98346473495134</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -936,69 +1042,69 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.904613032534381</v>
+        <v>0.512827200658417</v>
       </c>
       <c r="D44" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.798910873920617</v>
+        <v>0.0861198650243774</v>
       </c>
       <c r="E44" s="5" t="n">
         <f aca="true">C44+D44+RAND()/2</f>
-        <v>1.85924814975781</v>
+        <v>1.09324236958981</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0808126447885093</v>
+        <v>0.639008862357377</v>
       </c>
       <c r="D45" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.60104271624369</v>
+        <v>0.98121461017949</v>
       </c>
       <c r="E45" s="5" t="n">
         <f aca="true">C45+D45+RAND()/2</f>
-        <v>1.126347800704</v>
+        <v>1.85542419007533</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.926638558734173</v>
+        <v>0.188883197070763</v>
       </c>
       <c r="D46" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4708569171164</v>
+        <v>0.780575658782183</v>
       </c>
       <c r="E46" s="5" t="n">
         <f aca="true">C46+D46+RAND()/2</f>
-        <v>1.4355044655888</v>
+        <v>1.27356209333514</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.801301016524232</v>
+        <v>0.757367294827184</v>
       </c>
       <c r="D47" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.85908826983874</v>
+        <v>0.430470347095129</v>
       </c>
       <c r="E47" s="5" t="n">
         <f aca="true">C47+D47+RAND()/2</f>
-        <v>1.90384877136455</v>
+        <v>1.36448288241787</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1008,69 +1114,69 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665975132989606</v>
+        <v>0.690540609221863</v>
       </c>
       <c r="D48" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.724073910313436</v>
+        <v>0.152293848965336</v>
       </c>
       <c r="E48" s="5" t="n">
         <f aca="true">C48+D48+RAND()/2</f>
-        <v>1.80054892652773</v>
+        <v>1.28063391339668</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.726365800596175</v>
+        <v>0.647857013165914</v>
       </c>
       <c r="D49" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.451758247080359</v>
+        <v>0.152323963901973</v>
       </c>
       <c r="E49" s="5" t="n">
         <f aca="true">C49+D49+RAND()/2</f>
-        <v>1.21614041534715</v>
+        <v>1.15654073200472</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.384867657352359</v>
+        <v>0.0032768200023984</v>
       </c>
       <c r="D50" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.392975738085173</v>
+        <v>0.472714747382866</v>
       </c>
       <c r="E50" s="5" t="n">
         <f aca="true">C50+D50+RAND()/2</f>
-        <v>1.17885345235453</v>
+        <v>0.847068602832925</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.304452962007532</v>
+        <v>0.817167070106178</v>
       </c>
       <c r="D51" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.130923164908863</v>
+        <v>0.0835374060735721</v>
       </c>
       <c r="E51" s="5" t="n">
         <f aca="true">C51+D51+RAND()/2</f>
-        <v>0.533337546766229</v>
+        <v>1.00224489777441</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1080,15 +1186,15 @@
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.567043588529702</v>
+        <v>0.552812457379301</v>
       </c>
       <c r="D52" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.948569594707238</v>
+        <v>0.987076266903942</v>
       </c>
       <c r="E52" s="5" t="n">
         <f aca="true">C52+D52+RAND()/2</f>
-        <v>1.66414353632378</v>
+        <v>1.7757639042913</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1098,15 +1204,15 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00712156383665739</v>
+        <v>0.573862012759593</v>
       </c>
       <c r="D53" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.698699872182966</v>
+        <v>0.64298311943066</v>
       </c>
       <c r="E53" s="5" t="n">
         <f aca="true">C53+D53+RAND()/2</f>
-        <v>0.891660354974661</v>
+        <v>1.62915273913121</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1116,51 +1222,51 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0891799885475181</v>
+        <v>0.172176450724732</v>
       </c>
       <c r="D54" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.494967891671249</v>
+        <v>0.777842748517086</v>
       </c>
       <c r="E54" s="5" t="n">
         <f aca="true">C54+D54+RAND()/2</f>
-        <v>0.835737483084368</v>
+        <v>1.07321799708691</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.398920600742158</v>
+        <v>0.397951091152733</v>
       </c>
       <c r="D55" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.330184611255482</v>
+        <v>0.252583955681107</v>
       </c>
       <c r="E55" s="5" t="n">
         <f aca="true">C55+D55+RAND()/2</f>
-        <v>0.934002856414686</v>
+        <v>0.980388963947049</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.40656993741665</v>
+        <v>0.599518599284404</v>
       </c>
       <c r="D56" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.813430346468343</v>
+        <v>0.885853532850566</v>
       </c>
       <c r="E56" s="5" t="n">
         <f aca="true">C56+D56+RAND()/2</f>
-        <v>1.42270658591922</v>
+        <v>1.93013808591659</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1170,15 +1276,15 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.622430494031483</v>
+        <v>0.687974518766897</v>
       </c>
       <c r="D57" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.317537921330462</v>
+        <v>0.557110670122999</v>
       </c>
       <c r="E57" s="5" t="n">
         <f aca="true">C57+D57+RAND()/2</f>
-        <v>1.18819745866379</v>
+        <v>1.3690183073663</v>
       </c>
       <c r="F57" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1188,15 +1294,15 @@
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.919122498893112</v>
+        <v>0.0309077890606652</v>
       </c>
       <c r="D58" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435022879943184</v>
+        <v>0.472153280127527</v>
       </c>
       <c r="E58" s="5" t="n">
         <f aca="true">C58+D58+RAND()/2</f>
-        <v>1.8433206878145</v>
+        <v>0.735976618249881</v>
       </c>
       <c r="F58" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1206,69 +1312,69 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.538340597756099</v>
+        <v>0.813068410427859</v>
       </c>
       <c r="D59" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.475800802277138</v>
+        <v>0.616423751411009</v>
       </c>
       <c r="E59" s="5" t="n">
         <f aca="true">C59+D59+RAND()/2</f>
-        <v>1.47689910155165</v>
+        <v>1.86228221487324</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0273492044446439</v>
+        <v>0.221062871464572</v>
       </c>
       <c r="D60" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.407030595773034</v>
+        <v>0.99810625247808</v>
       </c>
       <c r="E60" s="5" t="n">
         <f aca="true">C60+D60+RAND()/2</f>
-        <v>0.445047785884379</v>
+        <v>1.35171154326172</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.700627589408924</v>
+        <v>0.58014205365386</v>
       </c>
       <c r="D61" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.511165826167981</v>
+        <v>0.114083263434174</v>
       </c>
       <c r="E61" s="5" t="n">
         <f aca="true">C61+D61+RAND()/2</f>
-        <v>1.41719301623899</v>
+        <v>0.723010774124151</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0439492624625423</v>
+        <v>0.907586956679826</v>
       </c>
       <c r="D62" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.324998128639871</v>
+        <v>0.507711229203118</v>
       </c>
       <c r="E62" s="5" t="n">
         <f aca="true">C62+D62+RAND()/2</f>
-        <v>0.777037358125583</v>
+        <v>1.87406959070687</v>
       </c>
       <c r="F62" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1278,33 +1384,33 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.132494003865028</v>
+        <v>0.552959168458955</v>
       </c>
       <c r="D63" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0089061157801029</v>
+        <v>0.303384777997578</v>
       </c>
       <c r="E63" s="5" t="n">
         <f aca="true">C63+D63+RAND()/2</f>
-        <v>0.278312870051893</v>
+        <v>1.28699292392889</v>
       </c>
       <c r="F63" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.996466520413891</v>
+        <v>0.933819325481513</v>
       </c>
       <c r="D64" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.717206178846034</v>
+        <v>0.509541031777835</v>
       </c>
       <c r="E64" s="5" t="n">
         <f aca="true">C64+D64+RAND()/2</f>
-        <v>2.01833600202374</v>
+        <v>1.85049735476651</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1314,15 +1420,15 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.220650636996691</v>
+        <v>0.58564229697975</v>
       </c>
       <c r="D65" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.607327857559557</v>
+        <v>0.998143138012576</v>
       </c>
       <c r="E65" s="5" t="n">
         <f aca="true">C65+D65+RAND()/2</f>
-        <v>1.20161686516903</v>
+        <v>1.63638956212266</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1332,15 +1438,15 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.458530738425021</v>
+        <v>0.525493210615164</v>
       </c>
       <c r="D66" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.823164993640428</v>
+        <v>0.141294818797917</v>
       </c>
       <c r="E66" s="5" t="n">
         <f aca="true">C66+D66+RAND()/2</f>
-        <v>1.50856175434819</v>
+        <v>0.720998730870516</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1350,15 +1456,15 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.894749555880867</v>
+        <v>0.550337830070956</v>
       </c>
       <c r="D67" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.000192240273502954</v>
+        <v>0.595451147484278</v>
       </c>
       <c r="E67" s="5" t="n">
         <f aca="true">C67+D67+RAND()/2</f>
-        <v>1.15535719162591</v>
+        <v>1.51338383333652</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1368,15 +1474,15 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.544313542304155</v>
+        <v>0.54193450570039</v>
       </c>
       <c r="D68" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.295186119283891</v>
+        <v>0.841257869294468</v>
       </c>
       <c r="E68" s="5" t="n">
         <f aca="true">C68+D68+RAND()/2</f>
-        <v>1.28496899629551</v>
+        <v>1.78536625452294</v>
       </c>
       <c r="F68" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1386,33 +1492,33 @@
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.494387621703753</v>
+        <v>0.953072679036618</v>
       </c>
       <c r="D69" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.343123727695055</v>
+        <v>0.766301644915742</v>
       </c>
       <c r="E69" s="5" t="n">
         <f aca="true">C69+D69+RAND()/2</f>
-        <v>1.19343754667253</v>
+        <v>2.05987169721978</v>
       </c>
       <c r="F69" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.798541711496356</v>
+        <v>0.804995105586864</v>
       </c>
       <c r="D70" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.879283864786898</v>
+        <v>0.0159010000730889</v>
       </c>
       <c r="E70" s="5" t="n">
         <f aca="true">C70+D70+RAND()/2</f>
-        <v>1.75336122310732</v>
+        <v>1.06078323297175</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1422,87 +1528,87 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0684832039842894</v>
+        <v>0.458887083344811</v>
       </c>
       <c r="D71" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.618916479204563</v>
+        <v>0.946798107803732</v>
       </c>
       <c r="E71" s="5" t="n">
         <f aca="true">C71+D71+RAND()/2</f>
-        <v>1.18044230739271</v>
+        <v>1.82343544073794</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.94346120887379</v>
+        <v>0.636779869434907</v>
       </c>
       <c r="D72" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.8936071587367</v>
+        <v>0.539355218259578</v>
       </c>
       <c r="E72" s="5" t="n">
         <f aca="true">C72+D72+RAND()/2</f>
-        <v>2.05599560753627</v>
+        <v>1.44149565993242</v>
       </c>
       <c r="F72" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.954784941482365</v>
+        <v>0.296760390206246</v>
       </c>
       <c r="D73" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.36137205050521</v>
+        <v>0.343520548603551</v>
       </c>
       <c r="E73" s="5" t="n">
         <f aca="true">C73+D73+RAND()/2</f>
-        <v>1.43562982916317</v>
+        <v>0.903143889715884</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.549763127033227</v>
+        <v>0.665130442373107</v>
       </c>
       <c r="D74" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665669693026885</v>
+        <v>0.868327098679016</v>
       </c>
       <c r="E74" s="5" t="n">
         <f aca="true">C74+D74+RAND()/2</f>
-        <v>1.37434485978315</v>
+        <v>1.83962330094183</v>
       </c>
       <c r="F74" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.808548934934603</v>
+        <v>0.166427411588289</v>
       </c>
       <c r="D75" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.856479541592709</v>
+        <v>0.844153747183474</v>
       </c>
       <c r="E75" s="5" t="n">
         <f aca="true">C75+D75+RAND()/2</f>
-        <v>2.01326354645546</v>
+        <v>1.12786238490179</v>
       </c>
       <c r="F75" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1512,15 +1618,15 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.300990345224391</v>
+        <v>0.95836141817132</v>
       </c>
       <c r="D76" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.930309647395023</v>
+        <v>0.757962078929193</v>
       </c>
       <c r="E76" s="5" t="n">
         <f aca="true">C76+D76+RAND()/2</f>
-        <v>1.59322344775193</v>
+        <v>2.17964675143633</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1530,51 +1636,51 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0574902100499396</v>
+        <v>0.52512646687786</v>
       </c>
       <c r="D77" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.743092508483294</v>
+        <v>0.761859410846445</v>
       </c>
       <c r="E77" s="5" t="n">
         <f aca="true">C77+D77+RAND()/2</f>
-        <v>0.960056115231403</v>
+        <v>1.42024458214134</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.219423030884559</v>
+        <v>0.685742679777386</v>
       </c>
       <c r="D78" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.630420033607725</v>
+        <v>0.83311775937606</v>
       </c>
       <c r="E78" s="5" t="n">
         <f aca="true">C78+D78+RAND()/2</f>
-        <v>0.879988140705314</v>
+        <v>1.78760690206425</v>
       </c>
       <c r="F78" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.431899784994517</v>
+        <v>0.792482034559209</v>
       </c>
       <c r="D79" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.700879531023651</v>
+        <v>0.941648130190287</v>
       </c>
       <c r="E79" s="5" t="n">
         <f aca="true">C79+D79+RAND()/2</f>
-        <v>1.49525859414892</v>
+        <v>1.88896125315628</v>
       </c>
       <c r="F79" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1584,15 +1690,15 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.1553123572004</v>
+        <v>0.559461957018183</v>
       </c>
       <c r="D80" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.473596513770589</v>
+        <v>0.559822342905542</v>
       </c>
       <c r="E80" s="5" t="n">
         <f aca="true">C80+D80+RAND()/2</f>
-        <v>0.723632503596579</v>
+        <v>1.2202589127033</v>
       </c>
       <c r="F80" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1602,51 +1708,51 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.28788742645505</v>
+        <v>0.572074388783921</v>
       </c>
       <c r="D81" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.914274985868433</v>
+        <v>0.876372030018096</v>
       </c>
       <c r="E81" s="5" t="n">
         <f aca="true">C81+D81+RAND()/2</f>
-        <v>1.44193273354505</v>
+        <v>1.55267104312752</v>
       </c>
       <c r="F81" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.924726917151245</v>
+        <v>0.166889976157156</v>
       </c>
       <c r="D82" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.272009064916547</v>
+        <v>0.261499308470766</v>
       </c>
       <c r="E82" s="5" t="n">
         <f aca="true">C82+D82+RAND()/2</f>
-        <v>1.51272344977218</v>
+        <v>0.751210264088907</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.511490451950659</v>
+        <v>0.837193279099948</v>
       </c>
       <c r="D83" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.991531426730037</v>
+        <v>0.127530124915666</v>
       </c>
       <c r="E83" s="5" t="n">
         <f aca="true">C83+D83+RAND()/2</f>
-        <v>1.90403381960399</v>
+        <v>1.18812256109595</v>
       </c>
       <c r="F83" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1656,15 +1762,15 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.931713619436796</v>
+        <v>0.535265842941671</v>
       </c>
       <c r="D84" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.97101326496944</v>
+        <v>0.267426020967452</v>
       </c>
       <c r="E84" s="5" t="n">
         <f aca="true">C84+D84+RAND()/2</f>
-        <v>2.03997945735194</v>
+        <v>1.21158713583375</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1674,15 +1780,15 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.769557833931783</v>
+        <v>0.532046540786218</v>
       </c>
       <c r="D85" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.547479180907464</v>
+        <v>0.177104094401869</v>
       </c>
       <c r="E85" s="5" t="n">
         <f aca="true">C85+D85+RAND()/2</f>
-        <v>1.38546633923481</v>
+        <v>0.991370534071896</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1692,51 +1798,51 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.698176889265389</v>
+        <v>0.499568268538255</v>
       </c>
       <c r="D86" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.667880238353842</v>
+        <v>0.827307332373098</v>
       </c>
       <c r="E86" s="5" t="n">
         <f aca="true">C86+D86+RAND()/2</f>
-        <v>1.58039388301264</v>
+        <v>1.71572980075796</v>
       </c>
       <c r="F86" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0122922449820103</v>
+        <v>0.454474366461553</v>
       </c>
       <c r="D87" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.11772751109544</v>
+        <v>0.813032838640619</v>
       </c>
       <c r="E87" s="5" t="n">
         <f aca="true">C87+D87+RAND()/2</f>
-        <v>0.435469376040394</v>
+        <v>1.75910752670309</v>
       </c>
       <c r="F87" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.506295994178068</v>
+        <v>0.848300418919716</v>
       </c>
       <c r="D88" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.207029072655575</v>
+        <v>0.781521285102943</v>
       </c>
       <c r="E88" s="5" t="n">
         <f aca="true">C88+D88+RAND()/2</f>
-        <v>0.824467078013305</v>
+        <v>1.83692311877092</v>
       </c>
       <c r="F88" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1746,15 +1852,15 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.565598447707021</v>
+        <v>0.193935232406291</v>
       </c>
       <c r="D89" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.704772520633725</v>
+        <v>0.602022568309445</v>
       </c>
       <c r="E89" s="5" t="n">
         <f aca="true">C89+D89+RAND()/2</f>
-        <v>1.57630428028146</v>
+        <v>0.930624402976112</v>
       </c>
       <c r="F89" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1764,15 +1870,15 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.840084200961182</v>
+        <v>0.259313092318594</v>
       </c>
       <c r="D90" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.437286312563491</v>
+        <v>0.267729553822255</v>
       </c>
       <c r="E90" s="5" t="n">
         <f aca="true">C90+D90+RAND()/2</f>
-        <v>1.6506658805621</v>
+        <v>0.571074953443323</v>
       </c>
       <c r="F90" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1782,15 +1888,15 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.873722124195205</v>
+        <v>0.292340297734824</v>
       </c>
       <c r="D91" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.415000544320294</v>
+        <v>0.639179246502867</v>
       </c>
       <c r="E91" s="5" t="n">
         <f aca="true">C91+D91+RAND()/2</f>
-        <v>1.62197690341465</v>
+        <v>1.34634077005784</v>
       </c>
       <c r="F91" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1800,51 +1906,51 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.109800934511377</v>
+        <v>0.532497368180077</v>
       </c>
       <c r="D92" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.554313255272206</v>
+        <v>0.22912538656884</v>
       </c>
       <c r="E92" s="5" t="n">
         <f aca="true">C92+D92+RAND()/2</f>
-        <v>0.737495249622902</v>
+        <v>1.15824496181221</v>
       </c>
       <c r="F92" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.454605691784902</v>
+        <v>0.884210589520042</v>
       </c>
       <c r="D93" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.437146669066607</v>
+        <v>0.462169286839499</v>
       </c>
       <c r="E93" s="5" t="n">
         <f aca="true">C93+D93+RAND()/2</f>
-        <v>1.31093721250818</v>
+        <v>1.57257137575399</v>
       </c>
       <c r="F93" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.820610672015753</v>
+        <v>0.730151562153546</v>
       </c>
       <c r="D94" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.131887392075672</v>
+        <v>0.787921709321832</v>
       </c>
       <c r="E94" s="5" t="n">
         <f aca="true">C94+D94+RAND()/2</f>
-        <v>1.3973318443287</v>
+        <v>1.568971604637</v>
       </c>
       <c r="F94" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1854,33 +1960,33 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.413819068146362</v>
+        <v>0.876768228320003</v>
       </c>
       <c r="D95" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.231891934635836</v>
+        <v>0.341655790531768</v>
       </c>
       <c r="E95" s="5" t="n">
         <f aca="true">C95+D95+RAND()/2</f>
-        <v>0.916300663906478</v>
+        <v>1.36854192836556</v>
       </c>
       <c r="F95" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.898205544699726</v>
+        <v>0.849440326803995</v>
       </c>
       <c r="D96" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.685612860776915</v>
+        <v>0.967730006959485</v>
       </c>
       <c r="E96" s="5" t="n">
         <f aca="true">C96+D96+RAND()/2</f>
-        <v>2.01476111365748</v>
+        <v>1.95429109635503</v>
       </c>
       <c r="F96" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1890,15 +1996,15 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.654703011650819</v>
+        <v>0.451406878604006</v>
       </c>
       <c r="D97" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.280680959933103</v>
+        <v>0.0318869467532745</v>
       </c>
       <c r="E97" s="5" t="n">
         <f aca="true">C97+D97+RAND()/2</f>
-        <v>1.17892468255549</v>
+        <v>0.813877808566774</v>
       </c>
       <c r="F97" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1908,33 +2014,33 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.621959133802943</v>
+        <v>0.158888236023292</v>
       </c>
       <c r="D98" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.620002624622059</v>
+        <v>0.189954545410172</v>
       </c>
       <c r="E98" s="5" t="n">
         <f aca="true">C98+D98+RAND()/2</f>
-        <v>1.6458008262473</v>
+        <v>0.405158782527435</v>
       </c>
       <c r="F98" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.966775284644988</v>
+        <v>0.797860430807382</v>
       </c>
       <c r="D99" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.345477166072473</v>
+        <v>0.341337518054319</v>
       </c>
       <c r="E99" s="5" t="n">
         <f aca="true">C99+D99+RAND()/2</f>
-        <v>1.48858706130184</v>
+        <v>1.53328425394775</v>
       </c>
       <c r="F99" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1944,33 +2050,33 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.835830869951877</v>
+        <v>0.961615130938443</v>
       </c>
       <c r="D100" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.484310248525556</v>
+        <v>0.496553619319138</v>
       </c>
       <c r="E100" s="5" t="n">
         <f aca="true">C100+D100+RAND()/2</f>
-        <v>1.7661617804476</v>
+        <v>1.75947452655625</v>
       </c>
       <c r="F100" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.410663997122361</v>
+        <v>0.659671406630572</v>
       </c>
       <c r="D101" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.469382648896438</v>
+        <v>0.804168514822876</v>
       </c>
       <c r="E101" s="5" t="n">
         <f aca="true">C101+D101+RAND()/2</f>
-        <v>1.05586444904708</v>
+        <v>1.8661546298227</v>
       </c>
       <c r="F101" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -1980,51 +2086,51 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00625989515427389</v>
+        <v>0.351143426095156</v>
       </c>
       <c r="D102" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498180508924204</v>
+        <v>0.197130974531786</v>
       </c>
       <c r="E102" s="5" t="n">
         <f aca="true">C102+D102+RAND()/2</f>
-        <v>0.793181882738426</v>
+        <v>0.825467808542216</v>
       </c>
       <c r="F102" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.33251622475797</v>
+        <v>0.488110187375133</v>
       </c>
       <c r="D103" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.421184860690595</v>
+        <v>0.160584788566962</v>
       </c>
       <c r="E103" s="5" t="n">
         <f aca="true">C103+D103+RAND()/2</f>
-        <v>1.16451610522162</v>
+        <v>1.05047308322517</v>
       </c>
       <c r="F103" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.927894188779417</v>
+        <v>0.820632558932394</v>
       </c>
       <c r="D104" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.266283204811427</v>
+        <v>0.168725697887854</v>
       </c>
       <c r="E104" s="5" t="n">
         <f aca="true">C104+D104+RAND()/2</f>
-        <v>1.35582782336754</v>
+        <v>1.15854739003375</v>
       </c>
       <c r="F104" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2034,15 +2140,15 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.28799341329222</v>
+        <v>0.83837962829008</v>
       </c>
       <c r="D105" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.914303367567739</v>
+        <v>0.629022864722484</v>
       </c>
       <c r="E105" s="5" t="n">
         <f aca="true">C105+D105+RAND()/2</f>
-        <v>1.65035411356855</v>
+        <v>1.91927997833935</v>
       </c>
       <c r="F105" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2052,15 +2158,15 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.099612518735323</v>
+        <v>0.176381463338017</v>
       </c>
       <c r="D106" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.420683114109187</v>
+        <v>0.731421607099348</v>
       </c>
       <c r="E106" s="5" t="n">
         <f aca="true">C106+D106+RAND()/2</f>
-        <v>0.900198555714115</v>
+        <v>1.26841772875257</v>
       </c>
       <c r="F106" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2070,51 +2176,51 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.453471889907532</v>
+        <v>0.650247858628279</v>
       </c>
       <c r="D107" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.652387381716159</v>
+        <v>0.528575893232389</v>
       </c>
       <c r="E107" s="5" t="n">
         <f aca="true">C107+D107+RAND()/2</f>
-        <v>1.4941104178914</v>
+        <v>1.55319433671137</v>
       </c>
       <c r="F107" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.950604862231558</v>
+        <v>0.0686163801498997</v>
       </c>
       <c r="D108" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0717435276015001</v>
+        <v>0.037664162618302</v>
       </c>
       <c r="E108" s="5" t="n">
         <f aca="true">C108+D108+RAND()/2</f>
-        <v>1.43554207430492</v>
+        <v>0.29109343984359</v>
       </c>
       <c r="F108" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.472969603970648</v>
+        <v>0.896435924212866</v>
       </c>
       <c r="D109" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.533302861344509</v>
+        <v>0.00353791639464792</v>
       </c>
       <c r="E109" s="5" t="n">
         <f aca="true">C109+D109+RAND()/2</f>
-        <v>1.34818727723756</v>
+        <v>1.18981695996179</v>
       </c>
       <c r="F109" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2124,15 +2230,15 @@
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.384856953157059</v>
+        <v>0.410482317963558</v>
       </c>
       <c r="D110" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.848332439756667</v>
+        <v>0.108578759941851</v>
       </c>
       <c r="E110" s="5" t="n">
         <f aca="true">C110+D110+RAND()/2</f>
-        <v>1.2768076699904</v>
+        <v>1.01614257987758</v>
       </c>
       <c r="F110" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2142,15 +2248,15 @@
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.280228225662491</v>
+        <v>0.989458677704751</v>
       </c>
       <c r="D111" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136910073826569</v>
+        <v>0.254048658156367</v>
       </c>
       <c r="E111" s="5" t="n">
         <f aca="true">C111+D111+RAND()/2</f>
-        <v>0.736168691757667</v>
+        <v>1.44738678362659</v>
       </c>
       <c r="F111" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2160,33 +2266,33 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.186412181916034</v>
+        <v>0.0327561548420286</v>
       </c>
       <c r="D112" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.681538978799792</v>
+        <v>0.681332667711682</v>
       </c>
       <c r="E112" s="5" t="n">
         <f aca="true">C112+D112+RAND()/2</f>
-        <v>1.12440746014388</v>
+        <v>0.758342707095008</v>
       </c>
       <c r="F112" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.211998853593572</v>
+        <v>0.0944338522018647</v>
       </c>
       <c r="D113" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.162908331795962</v>
+        <v>0.435611590488286</v>
       </c>
       <c r="E113" s="5" t="n">
         <f aca="true">C113+D113+RAND()/2</f>
-        <v>0.692777628030763</v>
+        <v>0.871492895063282</v>
       </c>
       <c r="F113" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2196,159 +2302,159 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.996374761571287</v>
+        <v>0.426345458504053</v>
       </c>
       <c r="D114" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.357470410377637</v>
+        <v>0.26218653739723</v>
       </c>
       <c r="E114" s="5" t="n">
         <f aca="true">C114+D114+RAND()/2</f>
-        <v>1.41044466330194</v>
+        <v>1.03076747741439</v>
       </c>
       <c r="F114" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.708423260813671</v>
+        <v>0.328020887288616</v>
       </c>
       <c r="D115" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.197990048975652</v>
+        <v>0.111426033447166</v>
       </c>
       <c r="E115" s="5" t="n">
         <f aca="true">C115+D115+RAND()/2</f>
-        <v>1.04479656246976</v>
+        <v>0.47022258319306</v>
       </c>
       <c r="F115" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0152562618170775</v>
+        <v>0.724284929365808</v>
       </c>
       <c r="D116" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.366461502797561</v>
+        <v>0.827676415484682</v>
       </c>
       <c r="E116" s="5" t="n">
         <f aca="true">C116+D116+RAND()/2</f>
-        <v>0.781936465912696</v>
+        <v>2.01251679776622</v>
       </c>
       <c r="F116" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.983399048511047</v>
+        <v>0.325912863002732</v>
       </c>
       <c r="D117" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.882692755008276</v>
+        <v>0.0302137617765275</v>
       </c>
       <c r="E117" s="5" t="n">
         <f aca="true">C117+D117+RAND()/2</f>
-        <v>2.10246428289462</v>
+        <v>0.750065737012267</v>
       </c>
       <c r="F117" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235061630417629</v>
+        <v>0.98334792358122</v>
       </c>
       <c r="D118" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.5633683832099</v>
+        <v>0.854402833311319</v>
       </c>
       <c r="E118" s="5" t="n">
         <f aca="true">C118+D118+RAND()/2</f>
-        <v>1.03235111821032</v>
+        <v>2.19111690096231</v>
       </c>
       <c r="F118" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.51465125735753</v>
+        <v>0.514757357538613</v>
       </c>
       <c r="D119" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.952000283712008</v>
+        <v>0.269194094297179</v>
       </c>
       <c r="E119" s="5" t="n">
         <f aca="true">C119+D119+RAND()/2</f>
-        <v>1.79607026804233</v>
+        <v>0.799006077126872</v>
       </c>
       <c r="F119" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.453360777453469</v>
+        <v>0.260850345804811</v>
       </c>
       <c r="D120" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.255622979822013</v>
+        <v>0.959512916552949</v>
       </c>
       <c r="E120" s="5" t="n">
         <f aca="true">C120+D120+RAND()/2</f>
-        <v>1.20161242952442</v>
+        <v>1.61697423532802</v>
       </c>
       <c r="F120" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.455109576658356</v>
+        <v>0.672634880321854</v>
       </c>
       <c r="D121" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.114422739736944</v>
+        <v>0.354705518032058</v>
       </c>
       <c r="E121" s="5" t="n">
         <f aca="true">C121+D121+RAND()/2</f>
-        <v>1.06845330705685</v>
+        <v>1.45843676724093</v>
       </c>
       <c r="F121" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.326253806919975</v>
+        <v>0.150583366671488</v>
       </c>
       <c r="D122" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.449929601594443</v>
+        <v>0.881294966994845</v>
       </c>
       <c r="E122" s="5" t="n">
         <f aca="true">C122+D122+RAND()/2</f>
-        <v>1.27019384710527</v>
+        <v>1.19557018170793</v>
       </c>
       <c r="F122" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2358,51 +2464,51 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498233349744141</v>
+        <v>0.230632151245075</v>
       </c>
       <c r="D123" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29922862663143</v>
+        <v>0.762778834197991</v>
       </c>
       <c r="E123" s="5" t="n">
         <f aca="true">C123+D123+RAND()/2</f>
-        <v>0.991074523965228</v>
+        <v>1.15794191737173</v>
       </c>
       <c r="F123" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.32958018934792</v>
+        <v>0.968451523346335</v>
       </c>
       <c r="D124" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.847107069426491</v>
+        <v>0.260958282210185</v>
       </c>
       <c r="E124" s="5" t="n">
         <f aca="true">C124+D124+RAND()/2</f>
-        <v>1.19152837992775</v>
+        <v>1.39857455369463</v>
       </c>
       <c r="F124" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.91190027415449</v>
+        <v>0.765418888217949</v>
       </c>
       <c r="D125" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.135486877198628</v>
+        <v>0.748459766890432</v>
       </c>
       <c r="E125" s="5" t="n">
         <f aca="true">C125+D125+RAND()/2</f>
-        <v>1.26234453489331</v>
+        <v>1.6040176112463</v>
       </c>
       <c r="F125" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2412,15 +2518,15 @@
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.990518392910861</v>
+        <v>0.234101612967394</v>
       </c>
       <c r="D126" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.852190089635195</v>
+        <v>0.0914097701029034</v>
       </c>
       <c r="E126" s="5" t="n">
         <f aca="true">C126+D126+RAND()/2</f>
-        <v>2.01080675056093</v>
+        <v>0.396927813512503</v>
       </c>
       <c r="F126" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2430,15 +2536,15 @@
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.242333048006806</v>
+        <v>0.641392739349512</v>
       </c>
       <c r="D127" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.534738322193466</v>
+        <v>0.292889632814519</v>
       </c>
       <c r="E127" s="5" t="n">
         <f aca="true">C127+D127+RAND()/2</f>
-        <v>1.1652109833224</v>
+        <v>0.950312578587905</v>
       </c>
       <c r="F127" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2448,51 +2554,51 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.489140059895273</v>
+        <v>0.0869695758551867</v>
       </c>
       <c r="D128" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.305203155792897</v>
+        <v>0.599415446128802</v>
       </c>
       <c r="E128" s="5" t="n">
         <f aca="true">C128+D128+RAND()/2</f>
-        <v>1.26343703623072</v>
+        <v>1.10934948493834</v>
       </c>
       <c r="F128" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.946406601874869</v>
+        <v>0.862903262065016</v>
       </c>
       <c r="D129" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.949149510802745</v>
+        <v>0.737671634471967</v>
       </c>
       <c r="E129" s="5" t="n">
         <f aca="true">C129+D129+RAND()/2</f>
-        <v>1.99672787598837</v>
+        <v>1.67458538333224</v>
       </c>
       <c r="F129" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.706617925374688</v>
+        <v>0.638776038453775</v>
       </c>
       <c r="D130" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0483247219584223</v>
+        <v>0.159211565346715</v>
       </c>
       <c r="E130" s="5" t="n">
         <f aca="true">C130+D130+RAND()/2</f>
-        <v>1.04797709074632</v>
+        <v>0.849367350928647</v>
       </c>
       <c r="F130" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
@@ -2502,15 +2608,15 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.779645968656954</v>
+        <v>0.780187471833722</v>
       </c>
       <c r="D131" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.706996492536119</v>
+        <v>0.346616415192144</v>
       </c>
       <c r="E131" s="5" t="n">
         <f aca="true">C131+D131+RAND()/2</f>
-        <v>1.53531668794908</v>
+        <v>1.2465414452003</v>
       </c>
       <c r="F131" s="1" t="n">
         <f aca="false">RANDBETWEEN(0, 1)</f>
